--- a/atomica/framework_template_advanced.xlsx
+++ b/atomica/framework_template_advanced.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F027DE4-6112-42CD-A7B4-6E6DD04DF68C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CCACD1-CA9B-4257-9C8A-A349B70D6D8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -821,18 +821,6 @@
     <t>comp2</t>
   </si>
   <si>
-    <t>parameters</t>
-  </si>
-  <si>
-    <t>state_variables</t>
-  </si>
-  <si>
-    <t>State Variables</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
     <t>comp1</t>
   </si>
   <si>
@@ -885,6 +873,18 @@
   </si>
   <si>
     <t>This is a template cascade</t>
+  </si>
+  <si>
+    <t>stocks</t>
+  </si>
+  <si>
+    <t>Stocks</t>
+  </si>
+  <si>
+    <t>flows</t>
+  </si>
+  <si>
+    <t>Flows</t>
   </si>
 </sst>
 </file>
@@ -969,7 +969,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1393,7 +1400,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1405,18 +1412,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1440,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,24 +1459,29 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="11" priority="1">
+  <conditionalFormatting sqref="B1 B4:B1048576">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1535,7 +1547,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1558,12 +1570,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>AND(I2&lt;&gt;"",NOT(H2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1625,7 +1637,7 @@
   <sheetData>
     <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="str">
         <f>IF(Compartments!$A2&lt;&gt;"",Compartments!$A2,"")</f>
@@ -5702,12 +5714,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>AND(I2&lt;&gt;"",NOT(H2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5758,8 +5770,8 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5815,7 +5827,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5829,26 +5841,29 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(K2&lt;&gt;"",NOT(J2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:I1048576" xr:uid="{7CB7BECB-8CCA-402C-8209-B57AEC65D6EC}">
       <formula1>"n,y"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Code names must be unique" error="Parameter code names must be unique" sqref="A1:A1048576" xr:uid="{E6E68E87-C2E4-4D80-BD6F-D69CE5F2A8E2}">
       <formula1>COUNTIF(A:A,A1)&lt;2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{8DEB734B-0D92-46DE-82B5-50C9B463F1CD}">
+      <formula1>"probability, number, proportion, duration"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5916,10 +5931,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5928,7 +5943,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5953,23 +5968,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -5985,7 +6000,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6020,16 +6035,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6040,18 +6055,18 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/atomica/framework_template_advanced.xlsx
+++ b/atomica/framework_template_advanced.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CCACD1-CA9B-4257-9C8A-A349B70D6D8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFDA50B-EC30-4E34-B62A-E7CAC710E0EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,7 +201,7 @@
             <family val="2"/>
           </rPr>
           <t>This column marks whether compartment size data can be rescaled
-during model calibration processes.</t>
+during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the compartment appears on a databook page</t>
         </r>
       </text>
     </comment>
@@ -413,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EC0EC08C-D65E-4DFA-A6CF-0EB40DE9D2A2}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EE09D36E-A545-468A-9499-0CDA7C399F13}">
       <text>
         <r>
           <rPr>
@@ -422,8 +422,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This column marks whether characteristic size data can be rescaled
-during model calibration processes.</t>
+          <t>This column marks whether compartment size data can be rescaled
+during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the characteristic appears on a databook page</t>
         </r>
       </text>
     </comment>
@@ -590,15 +590,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This column is for tagging a parameter as a potential program
-impact.
-Note: This tag is only enabled for a parameter by marking the
-corresponding cell 'y'.
-Anything else, including keeping the cell blank, disables the tag.</t>
+          <t>If set to 'y', the parameter can be targeted by programs, and it will appear in the program book for any projects using this framework</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{56CE2189-0A42-47B2-BD42-8E8BFBCF4F01}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2081E04D-F569-4CB4-A2D6-429C64002467}">
       <text>
         <r>
           <rPr>
@@ -607,8 +603,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This column marks whether parameter data can be rescaled
-during model calibration processes.</t>
+          <t>This column marks whether compartment size data can be rescaled
+during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the parameter is targetable</t>
         </r>
       </text>
     </comment>
@@ -758,9 +754,6 @@
     <t>Setup Weight</t>
   </si>
   <si>
-    <t>Can Calibrate</t>
-  </si>
-  <si>
     <t>Databook Page</t>
   </si>
   <si>
@@ -795,9 +788,6 @@
   </si>
   <si>
     <t>Function</t>
-  </si>
-  <si>
-    <t>Is Impact</t>
   </si>
   <si>
     <t>Type</t>
@@ -885,6 +875,12 @@
   </si>
   <si>
     <t>Flows</t>
+  </si>
+  <si>
+    <t>Calibrate</t>
+  </si>
+  <si>
+    <t>Targetable</t>
   </si>
 </sst>
 </file>
@@ -980,13 +976,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1037,6 +1026,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1412,18 +1408,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1459,18 +1455,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1480,7 +1476,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1496,7 +1492,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,20 +1530,20 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1560,7 +1556,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1570,17 +1566,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(I2&lt;&gt;"",NOT(H2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:E1048576 G1:G1048576" xr:uid="{EFA3D3D9-56A8-43F0-A737-1EDBC3038312}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:E1048576" xr:uid="{EFA3D3D9-56A8-43F0-A737-1EDBC3038312}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1637,7 +1633,7 @@
   <sheetData>
     <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="3" t="str">
         <f>IF(Compartments!$A2&lt;&gt;"",Compartments!$A2,"")</f>
@@ -5643,7 +5639,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5668,10 +5664,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -5680,21 +5676,21 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5706,28 +5702,23 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND(I2&lt;&gt;"",NOT(H2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{3FB7A4A5-B63C-489E-8DB0-DCA9DC6C3431}">
-      <formula1>"n,y"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5771,7 +5762,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5795,39 +5786,39 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5838,25 +5829,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>AND(K2&lt;&gt;"",NOT(J2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:I1048576" xr:uid="{7CB7BECB-8CCA-402C-8209-B57AEC65D6EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{7CB7BECB-8CCA-402C-8209-B57AEC65D6EC}">
       <formula1>"n,y"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Code names must be unique" error="Parameter code names must be unique" sqref="A1:A1048576" xr:uid="{E6E68E87-C2E4-4D80-BD6F-D69CE5F2A8E2}">
@@ -5931,10 +5922,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -5943,7 +5934,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5957,7 +5948,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5968,26 +5959,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6021,52 +6012,52 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/atomica/framework_template_advanced.xlsx
+++ b/atomica/framework_template_advanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/atomica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFDA50B-EC30-4E34-B62A-E7CAC710E0EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{330713E0-283E-D54D-8DD1-87D50D224028}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -23,219 +23,57 @@
     <sheet name="Cascades" sheetId="7" r:id="rId8"/>
     <sheet name="Plots" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8F11EEB6-017C-4E97-8DFB-6E8BA3F55C2C}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{81FEFA03-739A-C346-8137-5A8ACB041632}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the 'code name' of a compartment within a
-population cascade, a state that an entity can exist in that is
-distinct from all other states.
-Examples may include 'sus', 'inf_1', 'rec', etc.
-If entities in the network involve two 'orthogonal' descriptors,
-compartments should combine the status of each state in the title,
-e.g. 'inc_high_edu_hs', to make sure that each entity in a cascade is
-only ever in one state at a time.
-It is possible to bundle independent states as analytical features of
-interest elsewhere in the framework file.
-Note: A code name is a representative key that developers interface
-with (e.g. in scripts and the codebase).
-It should be in lower case without spaces.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For instructions on how to fill this out, please see </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cascade.tools/ug-frw-databookpages</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{18044106-CF0A-4F46-AE9F-654B913C6CA3}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A0B63E8C-E18B-D146-8DCF-446716EF6F5E}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the 'display name' of a compartment within a
-population cascade, a state that an entity can exist in that is
-distinct from all other states.
-Examples may include 'Susceptible', 'Infected Stage 1', 'Recovered',
-etc.
-If entities in the network involve two 'orthogonal' descriptors,
-compartments should combine the status of each state in the title,
-e.g. 'High Income Earner + Year 12 Education', to make sure that each
-entity in a cascade is only ever in one state at a time.
-It is possible to bundle independent states as analytical features of
-interest elsewhere in the framework file.
-Note: A display name is a representative label that users interface
-with (e.g. in databooks and plots).
-It should be in title or sentence case.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{50EA1244-E946-434D-A412-9398789E7050}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for tagging a compartment as an abstract 'source' state,
-from which entities can flow into the rest of a network.
-Compartment inflows are prohibited, compartment size is meaningless
-and, accordingly, compartment outflows cannot be specified in relative
-format.
-This tag should only be enabled for sources of network flows that are
-not intrinsically bound by size, e.g. births or immigration.
-Flows from sources can still be dependent on other variables in the
-cascade, e.g. if births are controlled by parental population size,
-while migrations between populations are considered transfers,
-i.e. between sets of compartments, and do not involve source nodes.
-Note: This tag is only enabled for a compartment by marking the
-corresponding cell 'y'.
-Anything else, including keeping the cell blank, disables the tag.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4B1D614A-6995-4BC4-9139-ADC85A780737}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for tagging a compartment as an abstract 'sink' state,
-into which entities can flow from the rest of a network.
-Compartment outflows are prohibited and compartment size denotes
-the accumulation of all inflowing entities from the start of
-simulation, the utility of which the user must judge on their own.
-This tag should only be enabled for sinks of network flows that mark
-the exit of entities from further involvement in a cascade, e.g. deaths
-and emigration.
-Migrations between populations are considered transfers, i.e. between
-sets of compartments, and do not involve sink nodes.
-Note: This tag is only enabled for a compartment by marking the
-corresponding cell 'y'.
-Anything else, including keeping the cell blank, disables the tag.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DB56E746-A899-4F16-8FAE-6600FA84B075}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for tagging a compartment as an abstract 'junction'
-state, commonly used to control the aggregation and disaggregation of
-network flows.
-These special nodes are designed to empty out their contents
-immediately after collecting inflow, meaning that they will never
-accumulate any entities at any point in time.
-Accordingly, compartment size is always zero and there must always be
-at least one compartment outflow, each of which must be specified in
-weighted format.
-Inflowing entities will be flushed out to connected states in
-proportion with the weights of the outflowing transitions.
-Models using junctions must be well designed, as a recursion limit will
-break networks involving endless cycles during simulation runtime.
-Note: This tag is only enabled for a compartment by marking the
-corresponding cell 'y'.
-Anything else, including keeping the cell blank, disables the tag.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B4B78201-E703-45F2-B8E3-C4BE043769F5}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column determines how important user-provided values for this
-compartment are to setting up the initial state of a model.
-In general, the column value should be '1' if model construction
-directly depends on what the user provides for compartment size.
-It should be '0' if supplied values are only for calibration or
-note-keeping purposes.
-In this latter case, the linear-algebra method of setting up
-compartment sizes may complain about an 'under-determined' system
-during a model run.
-To avoid this, every zero-weighted compartment should be matched
-by a 'characteristic' defined in a later spreadsheet that includes
-this compartment and is not weighted zero for setup weight.
-Note: Default value, i.e. a blank cell, is '1'.
-Framework file parsing should also warn the user about a compartment
-with nonzero setup weight that is suppressed in the databook, i.e.
-has a databook order of '-1'.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3F46A7DA-FE24-4E1C-9D15-BD3B9B2F2AA3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column marks whether compartment size data can be rescaled
-during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the compartment appears on a databook page</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{69690E77-E19A-4C62-A1A8-7A79BC1C6D8C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column optionally marks whether a data-input section should
-appear for this compartment in a custom databook sheet, if allowed
-to appear at all according to 'databook order'.
-Each value should be a code name for a desired page defined in
-the 'custom databook pages' worksheet page.
-If a cell is left empty, the enabled data-input section should appear
-in a default databook page dedicated to state variables.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4DCCC305-48A8-4F07-8F0E-014ED2BF36F9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column currently denotes whether a databook should request
-values from the user for the historical size of this compartment.
-A value of '-1' suppresses it from appearing in the databook.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For instructions on how to fill this out, please see </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>cascade.tools/ug-frw-databookpages</t>
         </r>
       </text>
     </comment>
@@ -246,30 +84,1050 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Romesh</author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{30BE7B3B-8600-4B7D-BACD-39889A358194}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8F11EEB6-017C-4E97-8DFB-6E8BA3F55C2C}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Romesh:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The code name should be in lower case without spaces.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
-The transition matrix specifies which parameters govern transitions between compartments. Entries in this matrix should correspond to parameter Code Names (cells will be red if the parameter name cannot be found on the Parameters sheet)</t>
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{18044106-CF0A-4F46-AE9F-654B913C6CA3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The display name appears on plots and other outputs.  It should be in sentence case. </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{50EA1244-E946-434D-A412-9398789E7050}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for tagging a compartment as an abstract 'source' state,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">from which entities can flow into the rest of a network.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compartment inflows are prohibited, compartment size is meaningless
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">and, accordingly, compartment outflows cannot be specified in relative
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">format.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This tag should only be enabled for sources of network flows that are
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">not intrinsically bound by size, e.g. births or immigration.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Flows from sources can still be dependent on other variables in the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">cascade, e.g. if births are controlled by parental population size,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">while migrations between populations are considered transfers,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">i.e. between sets of compartments, and do not involve source nodes.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: This tag is only enabled for a compartment by marking the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">corresponding cell 'y'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anything else, including keeping the cell blank, disables the tag.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4B1D614A-6995-4BC4-9139-ADC85A780737}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for tagging a compartment as an abstract 'sink' state,
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">into which entities can flow from the rest of a network.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compartment outflows are prohibited and compartment size denotes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the accumulation of all inflowing entities from the start of
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">simulation, the utility of which the user must judge on their own.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This tag should only be enabled for sinks of network flows that mark
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the exit of entities from further involvement in a cascade, e.g. deaths
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">and emigration.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Migrations between populations are considered transfers, i.e. between
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">sets of compartments, and do not involve sink nodes.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: This tag is only enabled for a compartment by marking the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">corresponding cell 'y'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anything else, including keeping the cell blank, disables the tag.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{DB56E746-A899-4F16-8FAE-6600FA84B075}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for tagging a compartment as an abstract 'junction'
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">state, commonly used to control the aggregation and disaggregation of
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">network flows.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">These special nodes are designed to empty out their contents
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">immediately after collecting inflow, meaning that they will never
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">accumulate any entities at any point in time.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Accordingly, compartment size is always zero and there must always be
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">at least one compartment outflow, each of which must be specified in
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">weighted format.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Inflowing entities will be flushed out to connected states in
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">proportion with the weights of the outflowing transitions.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Models using junctions must be well designed, as a recursion limit will
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">break networks involving endless cycles during simulation runtime.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: This tag is only enabled for a compartment by marking the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">corresponding cell 'y'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Anything else, including keeping the cell blank, disables the tag.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B4B78201-E703-45F2-B8E3-C4BE043769F5}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column determines how important user-provided values for this
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartment are to setting up the initial state of a model.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In general, the column value should be '1' if model construction
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">directly depends on what the user provides for compartment size.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">It should be '0' if supplied values are only for calibration or
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">note-keeping purposes.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In this latter case, the linear-algebra method of setting up
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartment sizes may complain about an 'under-determined' system
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">during a model run.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">To avoid this, every zero-weighted compartment should be matched
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">by a 'characteristic' defined in a later spreadsheet that includes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">this compartment and is not weighted zero for setup weight.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: Default value, i.e. a blank cell, is '1'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Framework file parsing should also warn the user about a compartment
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">with nonzero setup weight that is suppressed in the databook, i.e.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">has a databook order of '-1'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3F46A7DA-FE24-4E1C-9D15-BD3B9B2F2AA3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column marks whether compartment size data can be rescaled
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the compartment appears on a databook page
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{69690E77-E19A-4C62-A1A8-7A79BC1C6D8C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column optionally marks whether a data-input section should
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">appear for this compartment in a custom databook sheet, if allowed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">to appear at all according to 'databook order'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Each value should be a code name for a desired page defined in
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the 'custom databook pages' worksheet page.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If a cell is left empty, the enabled data-input section should appear
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>in a default databook page dedicated to state variables.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4DCCC305-48A8-4F07-8F0E-014ED2BF36F9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column currently denotes whether a databook should request
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">values from the user for the historical size of this compartment.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A value of '-1' suppresses it from appearing in the databook.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
         </r>
       </text>
     </comment>
@@ -280,184 +1138,49 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
+    <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A81A74DD-AC0E-4B65-846B-CB2954186FEC}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{30BE7B3B-8600-4B7D-BACD-39889A358194}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the 'code name' of a cascade characteristic,
-which is a set of compartments or, recursively, other characteristics.
-While a characteristic value is typically the population size across
-a set of compartments at a point in time, it can also be normalized by
-another characteristic.
-Defining a characteristic allows the model to track other important
-system state variables beyond the size of just one compartment.
-Examples include 'alive', 'num_inf_all', 'prop_imm', etc.
-Importantly, each compartment defined elsewhere also serves as a
-characteristic.
-Note: A code name is a representative key that developers interface
-with (e.g. in scripts and the codebase).
-It should be in lower case without spaces.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{57EA8209-4B86-41FB-BF49-4A6D4754AB5F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the 'display name' of a cascade characteristic,
-which is a set of compartments or, recursively, other characteristics.
-While a characteristic value is typically the population size across
-a set of compartments at a point in time, it can also be normalized by
-another characteristic.
-Defining a characteristic allows the model to track other important
-system state variables beyond the size of just one compartment.
-Examples include 'Number of People Alive', 'Number of Infections Across
-All Strains', 'Proportion of People Immune', etc.
-Importantly, each compartment defined elsewhere also serves as a
-characteristic.
-Note: A display name is a representative label that users interface
-with (e.g. in databooks and plots).
-It should be in title or sentence case.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6201EA2B-5CE9-45D3-ABC5-5BC441C9B026}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column, and any that immediately follow without a specified
-header, is for the 'components' of a cascade characteristic.
-A component is either a compartment or a characteristic that has
-been previously defined, i.e. in a previous row, and should be
-listed in this (and appropriate subsequent columns) by 'Code Name'.
-For example, characteristic 'infected' may include 'dis_stage_1',
-'dis_stage_2' and 'dis_advanced', where 'dis_advanced' is another
-previously-defined characteristic including 'dis_stage_3' and
-'dis_stage_4'.
-In an example model, 'infected' would track population size summed
-across the four 'dis_stage' states.
-Note: If two or more components are listed in the same column, they
-must be separated by a comma.
-Whitespace is allowable and will be deleted during processing.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7BD7B4BC-A36F-458A-A3A5-AFA478F72DEB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'denominator' attribute for a 'charac' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{39B7B833-74F0-4AC6-AF4B-699C22909F95}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'default_value' attribute for a 'charac' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A8C56C78-1F68-424B-8E30-7A6B97DEEFE2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column determines how important user-provided values for this
-characteristic are to setting up the initial state of a model.
-In general, the column value should be '1' if model construction
-directly depends on what the user provides for the characteristic.
-It should be '0' if supplied values are only for calibration or
-note-keeping purposes.
-In this latter case, the linear-algebra method of setting up
-compartment sizes may complain about an 'under-determined' system
-during a model run.
-To avoid this, every compartment that has a nonzero setup weight
-should be included in at least one distinct characteristic.
-Note: Default value, i.e. a blank cell, is '1'.
-Framework file parsing should also warn the user about a characteristic
-with nonzero setup weight that is suppressed in the databook, i.e.
-has a databook order of '-1'.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EE09D36E-A545-468A-9499-0CDA7C399F13}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column marks whether compartment size data can be rescaled
-during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the characteristic appears on a databook page</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{559607C2-31DF-4F19-8B38-ADD8E67B050A}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column optionally marks whether a data-input section should
-appear for this characteristic in a custom databook sheet, if allowed
-to appear at all according to 'databook order'.
-Each value should be a code name for a desired page defined in
-the 'custom databook pages' worksheet page.
-If a cell is left empty, the enabled data-input section should appear
-in a default databook page dedicated to state variables.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{ADDFC9C7-7898-4FFB-896C-C95E74B008F3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column currently denotes whether a databook should request
-historical values from the user for this characteristic.
-A value of '-1' suppresses it from appearing in the databook.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The transition matrix specifies which parameters govern transitions between compartments. Entries in this matrix should correspond to parameter Code Names (cells will be red if the parameter name cannot be found on the Parameters sheet).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-transitions</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -471,174 +1194,730 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{140756B8-9EBA-40C4-98A1-F91289280755}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A81A74DD-AC0E-4B65-846B-CB2954186FEC}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the 'code name' of a cascade parameter.
-The base case is referred to as a transition parameter, referring to
-the flow of entities between compartments.
-However, due to the option of specifying transition rates as functions
-of other parameters, a parameter can be any variable that directly or
-indirectly affects the rate of population change in the network.
-Examples include 'b_rate', 'yes_rate', 'web_cov', etc.
-Note: A code name is a representative key that developers interface
-with (e.g. in scripts and the codebase).
-It should be in lower case without spaces.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The code name should be in lower case without spaces.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{88893BC8-8DD6-4669-A22B-E608B0618831}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{57EA8209-4B86-41FB-BF49-4A6D4754AB5F}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the 'display name' of a cascade parameter.
-The base case is referred to as a transition parameter, referring to
-the flow of entities between compartments.
-However, due to the option of specifying transition rates as functions
-of other parameters, a parameter can be any variable that directly or
-indirectly affects the rate of population change in the network.
-Examples include 'Birth Rate', 'Treatment Uptake Rate', 'Internet
-Coverage', etc.
-Note: A display name is a representative label that users interface
-with (e.g. in databooks and plots).
-It should be in title or sentence case.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The display name will appear in plots and other outputs. It should be in sentence case.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EF5E3AFE-CA03-46C5-8AFC-2AC6046E3E09}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6201EA2B-5CE9-45D3-ABC5-5BC441C9B026}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'format' attribute for a 'par' item.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for the 'components' of a cascade characteristic.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A component is either a compartment or a characteristic that has
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">been previously defined, i.e. in a previous row, and should be
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">listed in this (and appropriate subsequent columns) by 'Code Name'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">For example, characteristic 'infected' may include 'dis_stage_1',
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'dis_stage_2' and 'dis_advanced', where 'dis_advanced' is another
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">previously-defined characteristic including 'dis_stage_3' and
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">'dis_stage_4'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In an example model, 'infected' would track population size summed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">across the four 'dis_stage' states.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: If two or more components are listed in the same column, they
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">must be separated by a comma.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FCE4BAB8-A6E9-4C37-855F-51EEAFF610F3}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{7BD7B4BC-A36F-458A-A3A5-AFA478F72DEB}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'default_value' attribute for a 'par' item.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'denominator' attribute for a 'charac' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F7DF6DA5-307D-42BB-80B5-CEE9AB8ED752}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{39B7B833-74F0-4AC6-AF4B-699C22909F95}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'min' attribute for a 'par' item.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'default_value' attribute for a 'charac' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4C3AB2C0-9D0C-4C0E-9CF0-D571224FE5BD}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A8C56C78-1F68-424B-8E30-7A6B97DEEFE2}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'max' attribute for a 'par' item.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column determines how important user-provided values for this
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">characteristic are to setting up the initial state of a model.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In general, the column value should be '1' if model construction
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">directly depends on what the user provides for the characteristic.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">It should be '0' if supplied values are only for calibration or
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">note-keeping purposes.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In this latter case, the linear-algebra method of setting up
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartment sizes may complain about an 'under-determined' system
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">during a model run.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">To avoid this, every compartment that has a nonzero setup weight
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">should be included in at least one distinct characteristic.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: Default value, i.e. a blank cell, is '1'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Framework file parsing should also warn the user about a characteristic
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">with nonzero setup weight that is suppressed in the databook, i.e.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">has a databook order of '-1'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{98B9E77F-8634-4220-9AE2-2EB54A125949}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{EE09D36E-A545-468A-9499-0CDA7C399F13}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'func' attribute for a 'par' item.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column marks whether compartment size data can be rescaled
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the characteristic appears on a databook page.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{974FC231-C2BA-4000-88CD-AB6CE23C45D0}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{559607C2-31DF-4F19-8B38-ADD8E67B050A}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>If set to 'y', the parameter can be targeted by programs, and it will appear in the program book for any projects using this framework</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column optionally marks whether a data-input section should
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">appear for this characteristic in a custom databook sheet, if allowed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">to appear at all according to 'databook order'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Each value should be a code name for a desired page defined in
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the 'custom databook pages' worksheet page.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If a cell is left empty, the enabled data-input section should appear
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">in a default databook page dedicated to state variables.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2081E04D-F569-4CB4-A2D6-429C64002467}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{ADDFC9C7-7898-4FFB-896C-C95E74B008F3}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column marks whether compartment size data can be rescaled
-during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the parameter is targetable</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9AB3D83C-D0BC-4583-B5B1-006FE7C2562F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column optionally marks whether a data-input section should
-appear for this parameter in a custom databook sheet, if allowed
-to appear at all according to 'databook order'.
-Each value should be a code name for a desired page defined in
-the 'custom databook pages' worksheet page.
-If a cell is left empty, the enabled data-input section should appear
-in a default databook page dedicated to parameters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{F4694702-1A69-4233-A84B-A75E88284228}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column currently denotes whether a databook should request
-historical values from the user for this parameter.
-A value of '-1' suppresses it from appearing in the databook.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column currently denotes whether a databook should request
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">historical values from the user for this characteristic.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A value of '-1' suppresses it from appearing in the databook.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -652,52 +1931,589 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{162B0863-E71C-4603-A693-15E6A2B23038}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E2FBD3E0-0A11-1C4B-B047-ED175ED137D6}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the 'code name' of a population interaction.
-These are special parameters that do not store values per population
-but per pairs of populations, specifically relating to how a source
-population interacts with a target population.
-Examples may include 'w_ctc', 'sex_partners', etc.
-The values that users provide for these matrix parameters, possibly
-time-dependent, can be propagated into population parameters by
-special functions such as 'srcpopavg'.
-Refer to documentation for more details.
-Note: A display name is a representative label that users interface
-with (e.g. in databooks and plots).
-It should be in title or sentence case.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The code name should be in lower case without spaces.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{FC00BD5D-BBD8-48DF-8AE7-162658709D7A}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{98F43FDC-B8F2-624A-A3D7-83BC76723056}">
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the 'display name' of a population interaction.
-These are special parameters that do not store values per population
-but per pairs of populations, specifically relating to how a source
-population interacts with a target population.
-Examples may include 'Contact weighting', 'Number of sex partners',
-etc.
-The values that users provide for these matrix parameters, possibly
-time-dependent, can be propagated into population parameters by
-special functions such as 'srcpopavg'.
-Refer to documentation for more details.
-Note: A display name is a representative label that users interface
-with (e.g. in databooks and plots).
-It should be in title or sentence case.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The display name will appear in plots and other outputs. It should be in sentence case.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-paramters</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{EF5E3AFE-CA03-46C5-8AFC-2AC6046E3E09}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'format' attribute for a 'par' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{FCE4BAB8-A6E9-4C37-855F-51EEAFF610F3}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'default_value' attribute for a 'par' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F7DF6DA5-307D-42BB-80B5-CEE9AB8ED752}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'min' attribute for a 'par' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4C3AB2C0-9D0C-4C0E-9CF0-D571224FE5BD}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'max' attribute for a 'par' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{98B9E77F-8634-4220-9AE2-2EB54A125949}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'func' attribute for a 'par' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{974FC231-C2BA-4000-88CD-AB6CE23C45D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If set to 'y', the parameter can be targeted by programs, and it will appear in the program book for any projects using this framework
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2081E04D-F569-4CB4-A2D6-429C64002467}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column marks whether compartment size data can be rescaled during model calibration processes. To enable calibration, enter a label in this column. If no value is entered, the item will not appear for calibration. If this column is not present, it will be automatically populated if the parameter is targetable
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9AB3D83C-D0BC-4583-B5B1-006FE7C2562F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column optionally marks whether a data-input section should appear for this parameter in a custom databook sheet, if allowed to appear at all according to 'databook order'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Each value should be a code name for a desired page defined in the 'custom databook pages' worksheet page. If a cell is left empty, the enabled data-input section should appear in a default databook page dedicated to parameters.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{F4694702-1A69-4233-A84B-A75E88284228}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column currently denotes whether a databook should request
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">historical values from the user for this parameter.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A value of '-1' suppresses it from appearing in the databook.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{66A64F1C-99F5-114A-9E5C-A6F5444B3812}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The code name should be in lower case without spaces.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-interactions
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C2A1EF6A-7EE4-264E-8ABE-0FFF8850940E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The display name will appear in plots and other outputs. It should be in sentence case.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>cascade.tools/ug-frw-interactions</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
         </r>
       </text>
     </comment>
@@ -705,12 +2521,130 @@
       <text>
         <r>
           <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'default_value' attribute for a 'interpop' item.</t>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column defines a 'default_value' attribute for a 'interpop' item.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-interactions </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6BBF7A4A-B30B-A340-BB28-847FCD6C1C47}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-cascades</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{2EB6BD31-E926-014E-9F7A-805DBC8C7D8D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The code name should be in lower case without spaces.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-plots
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F09145A5-5E42-3A46-99A0-F87F2F2A0381}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The display name will appear in plots and other outputs. It should be in sentence case.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-plots</t>
         </r>
       </text>
     </comment>
@@ -862,9 +2796,6 @@
     <t>Template</t>
   </si>
   <si>
-    <t>This is a template cascade</t>
-  </si>
-  <si>
     <t>stocks</t>
   </si>
   <si>
@@ -882,12 +2813,15 @@
   <si>
     <t>Targetable</t>
   </si>
+  <si>
+    <t>This is a template cascade. For instructions on how to fill it out, please see: cascade.tools/user-guide</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,23 +2838,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1396,17 +3346,17 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="74.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="74.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>44</v>
       </c>
@@ -1414,12 +3364,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1429,23 +3379,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,20 +3401,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1481,6 +3429,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1491,26 +3440,26 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +3479,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -1541,7 +3490,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1554,7 +3503,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1623,15 +3572,15 @@
   <dimension ref="A1:OH398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
@@ -3224,2383 +5173,2383 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>IF(Compartments!$A2&lt;&gt;"",Compartments!$A2,"")</f>
         <v>comp1</v>
       </c>
     </row>
-    <row r="3" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f>IF(Compartments!$A3&lt;&gt;"",Compartments!$A3,"")</f>
         <v>comp2</v>
       </c>
     </row>
-    <row r="4" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f>IF(Compartments!$A4&lt;&gt;"",Compartments!$A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f>IF(Compartments!$A5&lt;&gt;"",Compartments!$A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f>IF(Compartments!$A6&lt;&gt;"",Compartments!$A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f>IF(Compartments!$A7&lt;&gt;"",Compartments!$A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f>IF(Compartments!$A8&lt;&gt;"",Compartments!$A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f>IF(Compartments!$A9&lt;&gt;"",Compartments!$A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f>IF(Compartments!$A10&lt;&gt;"",Compartments!$A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f>IF(Compartments!$A11&lt;&gt;"",Compartments!$A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f>IF(Compartments!$A12&lt;&gt;"",Compartments!$A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f>IF(Compartments!$A13&lt;&gt;"",Compartments!$A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f>IF(Compartments!$A14&lt;&gt;"",Compartments!$A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f>IF(Compartments!$A15&lt;&gt;"",Compartments!$A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:398" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:398" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f>IF(Compartments!$A16&lt;&gt;"",Compartments!$A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f>IF(Compartments!$A17&lt;&gt;"",Compartments!$A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f>IF(Compartments!$A18&lt;&gt;"",Compartments!$A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f>IF(Compartments!$A19&lt;&gt;"",Compartments!$A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f>IF(Compartments!$A20&lt;&gt;"",Compartments!$A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f>IF(Compartments!$A21&lt;&gt;"",Compartments!$A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f>IF(Compartments!$A22&lt;&gt;"",Compartments!$A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f>IF(Compartments!$A23&lt;&gt;"",Compartments!$A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f>IF(Compartments!$A24&lt;&gt;"",Compartments!$A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f>IF(Compartments!$A25&lt;&gt;"",Compartments!$A25,"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f>IF(Compartments!$A26&lt;&gt;"",Compartments!$A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f>IF(Compartments!$A27&lt;&gt;"",Compartments!$A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f>IF(Compartments!$A28&lt;&gt;"",Compartments!$A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f>IF(Compartments!$A29&lt;&gt;"",Compartments!$A29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f>IF(Compartments!$A30&lt;&gt;"",Compartments!$A30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f>IF(Compartments!$A31&lt;&gt;"",Compartments!$A31,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f>IF(Compartments!$A32&lt;&gt;"",Compartments!$A32,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f>IF(Compartments!$A33&lt;&gt;"",Compartments!$A33,"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f>IF(Compartments!$A34&lt;&gt;"",Compartments!$A34,"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f>IF(Compartments!$A35&lt;&gt;"",Compartments!$A35,"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f>IF(Compartments!$A36&lt;&gt;"",Compartments!$A36,"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f>IF(Compartments!$A37&lt;&gt;"",Compartments!$A37,"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f>IF(Compartments!$A38&lt;&gt;"",Compartments!$A38,"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f>IF(Compartments!$A39&lt;&gt;"",Compartments!$A39,"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f>IF(Compartments!$A40&lt;&gt;"",Compartments!$A40,"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f>IF(Compartments!$A41&lt;&gt;"",Compartments!$A41,"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f>IF(Compartments!$A42&lt;&gt;"",Compartments!$A42,"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f>IF(Compartments!$A43&lt;&gt;"",Compartments!$A43,"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f>IF(Compartments!$A44&lt;&gt;"",Compartments!$A44,"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f>IF(Compartments!$A45&lt;&gt;"",Compartments!$A45,"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f>IF(Compartments!$A46&lt;&gt;"",Compartments!$A46,"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>IF(Compartments!$A47&lt;&gt;"",Compartments!$A47,"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f>IF(Compartments!$A48&lt;&gt;"",Compartments!$A48,"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>IF(Compartments!$A49&lt;&gt;"",Compartments!$A49,"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f>IF(Compartments!$A50&lt;&gt;"",Compartments!$A50,"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f>IF(Compartments!$A51&lt;&gt;"",Compartments!$A51,"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f>IF(Compartments!$A52&lt;&gt;"",Compartments!$A52,"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f>IF(Compartments!$A53&lt;&gt;"",Compartments!$A53,"")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f>IF(Compartments!$A54&lt;&gt;"",Compartments!$A54,"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f>IF(Compartments!$A55&lt;&gt;"",Compartments!$A55,"")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f>IF(Compartments!$A56&lt;&gt;"",Compartments!$A56,"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f>IF(Compartments!$A57&lt;&gt;"",Compartments!$A57,"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f>IF(Compartments!$A58&lt;&gt;"",Compartments!$A58,"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f>IF(Compartments!$A59&lt;&gt;"",Compartments!$A59,"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f>IF(Compartments!$A60&lt;&gt;"",Compartments!$A60,"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f>IF(Compartments!$A61&lt;&gt;"",Compartments!$A61,"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f>IF(Compartments!$A62&lt;&gt;"",Compartments!$A62,"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f>IF(Compartments!$A63&lt;&gt;"",Compartments!$A63,"")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f>IF(Compartments!$A64&lt;&gt;"",Compartments!$A64,"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f>IF(Compartments!$A65&lt;&gt;"",Compartments!$A65,"")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f>IF(Compartments!$A66&lt;&gt;"",Compartments!$A66,"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f>IF(Compartments!$A67&lt;&gt;"",Compartments!$A67,"")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f>IF(Compartments!$A68&lt;&gt;"",Compartments!$A68,"")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f>IF(Compartments!$A69&lt;&gt;"",Compartments!$A69,"")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f>IF(Compartments!$A70&lt;&gt;"",Compartments!$A70,"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f>IF(Compartments!$A71&lt;&gt;"",Compartments!$A71,"")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f>IF(Compartments!$A72&lt;&gt;"",Compartments!$A72,"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f>IF(Compartments!$A73&lt;&gt;"",Compartments!$A73,"")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f>IF(Compartments!$A74&lt;&gt;"",Compartments!$A74,"")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f>IF(Compartments!$A75&lt;&gt;"",Compartments!$A75,"")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f>IF(Compartments!$A76&lt;&gt;"",Compartments!$A76,"")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f>IF(Compartments!$A77&lt;&gt;"",Compartments!$A77,"")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f>IF(Compartments!$A78&lt;&gt;"",Compartments!$A78,"")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f>IF(Compartments!$A79&lt;&gt;"",Compartments!$A79,"")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f>IF(Compartments!$A80&lt;&gt;"",Compartments!$A80,"")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f>IF(Compartments!$A81&lt;&gt;"",Compartments!$A81,"")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f>IF(Compartments!$A82&lt;&gt;"",Compartments!$A82,"")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f>IF(Compartments!$A83&lt;&gt;"",Compartments!$A83,"")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f>IF(Compartments!$A84&lt;&gt;"",Compartments!$A84,"")</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f>IF(Compartments!$A85&lt;&gt;"",Compartments!$A85,"")</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f>IF(Compartments!$A86&lt;&gt;"",Compartments!$A86,"")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f>IF(Compartments!$A87&lt;&gt;"",Compartments!$A87,"")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f>IF(Compartments!$A88&lt;&gt;"",Compartments!$A88,"")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f>IF(Compartments!$A89&lt;&gt;"",Compartments!$A89,"")</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f>IF(Compartments!$A90&lt;&gt;"",Compartments!$A90,"")</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f>IF(Compartments!$A91&lt;&gt;"",Compartments!$A91,"")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f>IF(Compartments!$A92&lt;&gt;"",Compartments!$A92,"")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f>IF(Compartments!$A93&lt;&gt;"",Compartments!$A93,"")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
         <f>IF(Compartments!$A94&lt;&gt;"",Compartments!$A94,"")</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
         <f>IF(Compartments!$A95&lt;&gt;"",Compartments!$A95,"")</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="str">
         <f>IF(Compartments!$A96&lt;&gt;"",Compartments!$A96,"")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
         <f>IF(Compartments!$A97&lt;&gt;"",Compartments!$A97,"")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="str">
         <f>IF(Compartments!$A98&lt;&gt;"",Compartments!$A98,"")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="str">
         <f>IF(Compartments!$A99&lt;&gt;"",Compartments!$A99,"")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="str">
         <f>IF(Compartments!$A100&lt;&gt;"",Compartments!$A100,"")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="str">
         <f>IF(Compartments!$A101&lt;&gt;"",Compartments!$A101,"")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="str">
         <f>IF(Compartments!$A102&lt;&gt;"",Compartments!$A102,"")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="str">
         <f>IF(Compartments!$A103&lt;&gt;"",Compartments!$A103,"")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="str">
         <f>IF(Compartments!$A104&lt;&gt;"",Compartments!$A104,"")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="str">
         <f>IF(Compartments!$A105&lt;&gt;"",Compartments!$A105,"")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="str">
         <f>IF(Compartments!$A106&lt;&gt;"",Compartments!$A106,"")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="str">
         <f>IF(Compartments!$A107&lt;&gt;"",Compartments!$A107,"")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
         <f>IF(Compartments!$A108&lt;&gt;"",Compartments!$A108,"")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
         <f>IF(Compartments!$A109&lt;&gt;"",Compartments!$A109,"")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="str">
         <f>IF(Compartments!$A110&lt;&gt;"",Compartments!$A110,"")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="str">
         <f>IF(Compartments!$A111&lt;&gt;"",Compartments!$A111,"")</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
         <f>IF(Compartments!$A112&lt;&gt;"",Compartments!$A112,"")</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="str">
         <f>IF(Compartments!$A113&lt;&gt;"",Compartments!$A113,"")</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
         <f>IF(Compartments!$A114&lt;&gt;"",Compartments!$A114,"")</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="str">
         <f>IF(Compartments!$A115&lt;&gt;"",Compartments!$A115,"")</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="str">
         <f>IF(Compartments!$A116&lt;&gt;"",Compartments!$A116,"")</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="str">
         <f>IF(Compartments!$A117&lt;&gt;"",Compartments!$A117,"")</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="str">
         <f>IF(Compartments!$A118&lt;&gt;"",Compartments!$A118,"")</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="str">
         <f>IF(Compartments!$A119&lt;&gt;"",Compartments!$A119,"")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="str">
         <f>IF(Compartments!$A120&lt;&gt;"",Compartments!$A120,"")</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="str">
         <f>IF(Compartments!$A121&lt;&gt;"",Compartments!$A121,"")</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="str">
         <f>IF(Compartments!$A122&lt;&gt;"",Compartments!$A122,"")</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="str">
         <f>IF(Compartments!$A123&lt;&gt;"",Compartments!$A123,"")</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="str">
         <f>IF(Compartments!$A124&lt;&gt;"",Compartments!$A124,"")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="str">
         <f>IF(Compartments!$A125&lt;&gt;"",Compartments!$A125,"")</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="str">
         <f>IF(Compartments!$A126&lt;&gt;"",Compartments!$A126,"")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="str">
         <f>IF(Compartments!$A127&lt;&gt;"",Compartments!$A127,"")</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="str">
         <f>IF(Compartments!$A128&lt;&gt;"",Compartments!$A128,"")</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="str">
         <f>IF(Compartments!$A129&lt;&gt;"",Compartments!$A129,"")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="str">
         <f>IF(Compartments!$A130&lt;&gt;"",Compartments!$A130,"")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="str">
         <f>IF(Compartments!$A131&lt;&gt;"",Compartments!$A131,"")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="str">
         <f>IF(Compartments!$A132&lt;&gt;"",Compartments!$A132,"")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="str">
         <f>IF(Compartments!$A133&lt;&gt;"",Compartments!$A133,"")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="str">
         <f>IF(Compartments!$A134&lt;&gt;"",Compartments!$A134,"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="str">
         <f>IF(Compartments!$A135&lt;&gt;"",Compartments!$A135,"")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="str">
         <f>IF(Compartments!$A136&lt;&gt;"",Compartments!$A136,"")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="str">
         <f>IF(Compartments!$A137&lt;&gt;"",Compartments!$A137,"")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="str">
         <f>IF(Compartments!$A138&lt;&gt;"",Compartments!$A138,"")</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="str">
         <f>IF(Compartments!$A139&lt;&gt;"",Compartments!$A139,"")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="str">
         <f>IF(Compartments!$A140&lt;&gt;"",Compartments!$A140,"")</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="str">
         <f>IF(Compartments!$A141&lt;&gt;"",Compartments!$A141,"")</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="str">
         <f>IF(Compartments!$A142&lt;&gt;"",Compartments!$A142,"")</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="str">
         <f>IF(Compartments!$A143&lt;&gt;"",Compartments!$A143,"")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="str">
         <f>IF(Compartments!$A144&lt;&gt;"",Compartments!$A144,"")</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="str">
         <f>IF(Compartments!$A145&lt;&gt;"",Compartments!$A145,"")</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="str">
         <f>IF(Compartments!$A146&lt;&gt;"",Compartments!$A146,"")</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="str">
         <f>IF(Compartments!$A147&lt;&gt;"",Compartments!$A147,"")</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="str">
         <f>IF(Compartments!$A148&lt;&gt;"",Compartments!$A148,"")</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="str">
         <f>IF(Compartments!$A149&lt;&gt;"",Compartments!$A149,"")</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="str">
         <f>IF(Compartments!$A150&lt;&gt;"",Compartments!$A150,"")</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="str">
         <f>IF(Compartments!$A151&lt;&gt;"",Compartments!$A151,"")</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="str">
         <f>IF(Compartments!$A152&lt;&gt;"",Compartments!$A152,"")</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="str">
         <f>IF(Compartments!$A153&lt;&gt;"",Compartments!$A153,"")</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="str">
         <f>IF(Compartments!$A154&lt;&gt;"",Compartments!$A154,"")</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="str">
         <f>IF(Compartments!$A155&lt;&gt;"",Compartments!$A155,"")</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="str">
         <f>IF(Compartments!$A156&lt;&gt;"",Compartments!$A156,"")</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="str">
         <f>IF(Compartments!$A157&lt;&gt;"",Compartments!$A157,"")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="str">
         <f>IF(Compartments!$A158&lt;&gt;"",Compartments!$A158,"")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="str">
         <f>IF(Compartments!$A159&lt;&gt;"",Compartments!$A159,"")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="str">
         <f>IF(Compartments!$A160&lt;&gt;"",Compartments!$A160,"")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="str">
         <f>IF(Compartments!$A161&lt;&gt;"",Compartments!$A161,"")</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="str">
         <f>IF(Compartments!$A162&lt;&gt;"",Compartments!$A162,"")</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="str">
         <f>IF(Compartments!$A163&lt;&gt;"",Compartments!$A163,"")</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="str">
         <f>IF(Compartments!$A164&lt;&gt;"",Compartments!$A164,"")</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="str">
         <f>IF(Compartments!$A165&lt;&gt;"",Compartments!$A165,"")</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="str">
         <f>IF(Compartments!$A166&lt;&gt;"",Compartments!$A166,"")</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="str">
         <f>IF(Compartments!$A167&lt;&gt;"",Compartments!$A167,"")</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="str">
         <f>IF(Compartments!$A168&lt;&gt;"",Compartments!$A168,"")</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="str">
         <f>IF(Compartments!$A169&lt;&gt;"",Compartments!$A169,"")</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="str">
         <f>IF(Compartments!$A170&lt;&gt;"",Compartments!$A170,"")</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="str">
         <f>IF(Compartments!$A171&lt;&gt;"",Compartments!$A171,"")</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="str">
         <f>IF(Compartments!$A172&lt;&gt;"",Compartments!$A172,"")</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="str">
         <f>IF(Compartments!$A173&lt;&gt;"",Compartments!$A173,"")</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="str">
         <f>IF(Compartments!$A174&lt;&gt;"",Compartments!$A174,"")</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="str">
         <f>IF(Compartments!$A175&lt;&gt;"",Compartments!$A175,"")</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="str">
         <f>IF(Compartments!$A176&lt;&gt;"",Compartments!$A176,"")</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="str">
         <f>IF(Compartments!$A177&lt;&gt;"",Compartments!$A177,"")</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="str">
         <f>IF(Compartments!$A178&lt;&gt;"",Compartments!$A178,"")</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="str">
         <f>IF(Compartments!$A179&lt;&gt;"",Compartments!$A179,"")</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="str">
         <f>IF(Compartments!$A180&lt;&gt;"",Compartments!$A180,"")</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="str">
         <f>IF(Compartments!$A181&lt;&gt;"",Compartments!$A181,"")</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="str">
         <f>IF(Compartments!$A182&lt;&gt;"",Compartments!$A182,"")</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="str">
         <f>IF(Compartments!$A183&lt;&gt;"",Compartments!$A183,"")</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="str">
         <f>IF(Compartments!$A184&lt;&gt;"",Compartments!$A184,"")</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="str">
         <f>IF(Compartments!$A185&lt;&gt;"",Compartments!$A185,"")</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="str">
         <f>IF(Compartments!$A186&lt;&gt;"",Compartments!$A186,"")</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="str">
         <f>IF(Compartments!$A187&lt;&gt;"",Compartments!$A187,"")</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="str">
         <f>IF(Compartments!$A188&lt;&gt;"",Compartments!$A188,"")</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="str">
         <f>IF(Compartments!$A189&lt;&gt;"",Compartments!$A189,"")</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="str">
         <f>IF(Compartments!$A190&lt;&gt;"",Compartments!$A190,"")</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="str">
         <f>IF(Compartments!$A191&lt;&gt;"",Compartments!$A191,"")</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="str">
         <f>IF(Compartments!$A192&lt;&gt;"",Compartments!$A192,"")</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="str">
         <f>IF(Compartments!$A193&lt;&gt;"",Compartments!$A193,"")</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="str">
         <f>IF(Compartments!$A194&lt;&gt;"",Compartments!$A194,"")</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="str">
         <f>IF(Compartments!$A195&lt;&gt;"",Compartments!$A195,"")</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="str">
         <f>IF(Compartments!$A196&lt;&gt;"",Compartments!$A196,"")</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="str">
         <f>IF(Compartments!$A197&lt;&gt;"",Compartments!$A197,"")</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="str">
         <f>IF(Compartments!$A198&lt;&gt;"",Compartments!$A198,"")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="str">
         <f>IF(Compartments!$A199&lt;&gt;"",Compartments!$A199,"")</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="str">
         <f>IF(Compartments!$A200&lt;&gt;"",Compartments!$A200,"")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="str">
         <f>IF(Compartments!$A201&lt;&gt;"",Compartments!$A201,"")</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="str">
         <f>IF(Compartments!$A202&lt;&gt;"",Compartments!$A202,"")</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="str">
         <f>IF(Compartments!$A203&lt;&gt;"",Compartments!$A203,"")</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="str">
         <f>IF(Compartments!$A204&lt;&gt;"",Compartments!$A204,"")</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="str">
         <f>IF(Compartments!$A205&lt;&gt;"",Compartments!$A205,"")</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="str">
         <f>IF(Compartments!$A206&lt;&gt;"",Compartments!$A206,"")</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="str">
         <f>IF(Compartments!$A207&lt;&gt;"",Compartments!$A207,"")</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="str">
         <f>IF(Compartments!$A208&lt;&gt;"",Compartments!$A208,"")</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="str">
         <f>IF(Compartments!$A209&lt;&gt;"",Compartments!$A209,"")</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="str">
         <f>IF(Compartments!$A210&lt;&gt;"",Compartments!$A210,"")</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="str">
         <f>IF(Compartments!$A211&lt;&gt;"",Compartments!$A211,"")</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="str">
         <f>IF(Compartments!$A212&lt;&gt;"",Compartments!$A212,"")</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="str">
         <f>IF(Compartments!$A213&lt;&gt;"",Compartments!$A213,"")</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="str">
         <f>IF(Compartments!$A214&lt;&gt;"",Compartments!$A214,"")</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="str">
         <f>IF(Compartments!$A215&lt;&gt;"",Compartments!$A215,"")</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="str">
         <f>IF(Compartments!$A216&lt;&gt;"",Compartments!$A216,"")</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="str">
         <f>IF(Compartments!$A217&lt;&gt;"",Compartments!$A217,"")</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="str">
         <f>IF(Compartments!$A218&lt;&gt;"",Compartments!$A218,"")</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="str">
         <f>IF(Compartments!$A219&lt;&gt;"",Compartments!$A219,"")</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="str">
         <f>IF(Compartments!$A220&lt;&gt;"",Compartments!$A220,"")</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="str">
         <f>IF(Compartments!$A221&lt;&gt;"",Compartments!$A221,"")</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="str">
         <f>IF(Compartments!$A222&lt;&gt;"",Compartments!$A222,"")</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="str">
         <f>IF(Compartments!$A223&lt;&gt;"",Compartments!$A223,"")</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="str">
         <f>IF(Compartments!$A224&lt;&gt;"",Compartments!$A224,"")</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="str">
         <f>IF(Compartments!$A225&lt;&gt;"",Compartments!$A225,"")</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="str">
         <f>IF(Compartments!$A226&lt;&gt;"",Compartments!$A226,"")</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="str">
         <f>IF(Compartments!$A227&lt;&gt;"",Compartments!$A227,"")</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="str">
         <f>IF(Compartments!$A228&lt;&gt;"",Compartments!$A228,"")</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="str">
         <f>IF(Compartments!$A229&lt;&gt;"",Compartments!$A229,"")</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="str">
         <f>IF(Compartments!$A230&lt;&gt;"",Compartments!$A230,"")</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="str">
         <f>IF(Compartments!$A231&lt;&gt;"",Compartments!$A231,"")</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="str">
         <f>IF(Compartments!$A232&lt;&gt;"",Compartments!$A232,"")</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="str">
         <f>IF(Compartments!$A233&lt;&gt;"",Compartments!$A233,"")</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="str">
         <f>IF(Compartments!$A234&lt;&gt;"",Compartments!$A234,"")</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="str">
         <f>IF(Compartments!$A235&lt;&gt;"",Compartments!$A235,"")</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="str">
         <f>IF(Compartments!$A236&lt;&gt;"",Compartments!$A236,"")</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="str">
         <f>IF(Compartments!$A237&lt;&gt;"",Compartments!$A237,"")</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="str">
         <f>IF(Compartments!$A238&lt;&gt;"",Compartments!$A238,"")</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="str">
         <f>IF(Compartments!$A239&lt;&gt;"",Compartments!$A239,"")</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="str">
         <f>IF(Compartments!$A240&lt;&gt;"",Compartments!$A240,"")</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="str">
         <f>IF(Compartments!$A241&lt;&gt;"",Compartments!$A241,"")</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="str">
         <f>IF(Compartments!$A242&lt;&gt;"",Compartments!$A242,"")</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="str">
         <f>IF(Compartments!$A243&lt;&gt;"",Compartments!$A243,"")</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="str">
         <f>IF(Compartments!$A244&lt;&gt;"",Compartments!$A244,"")</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="str">
         <f>IF(Compartments!$A245&lt;&gt;"",Compartments!$A245,"")</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="str">
         <f>IF(Compartments!$A246&lt;&gt;"",Compartments!$A246,"")</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="str">
         <f>IF(Compartments!$A247&lt;&gt;"",Compartments!$A247,"")</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="str">
         <f>IF(Compartments!$A248&lt;&gt;"",Compartments!$A248,"")</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="str">
         <f>IF(Compartments!$A249&lt;&gt;"",Compartments!$A249,"")</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="str">
         <f>IF(Compartments!$A250&lt;&gt;"",Compartments!$A250,"")</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="str">
         <f>IF(Compartments!$A251&lt;&gt;"",Compartments!$A251,"")</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="str">
         <f>IF(Compartments!$A252&lt;&gt;"",Compartments!$A252,"")</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="str">
         <f>IF(Compartments!$A253&lt;&gt;"",Compartments!$A253,"")</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="str">
         <f>IF(Compartments!$A254&lt;&gt;"",Compartments!$A254,"")</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="str">
         <f>IF(Compartments!$A255&lt;&gt;"",Compartments!$A255,"")</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="str">
         <f>IF(Compartments!$A256&lt;&gt;"",Compartments!$A256,"")</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="str">
         <f>IF(Compartments!$A257&lt;&gt;"",Compartments!$A257,"")</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="str">
         <f>IF(Compartments!$A258&lt;&gt;"",Compartments!$A258,"")</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="str">
         <f>IF(Compartments!$A259&lt;&gt;"",Compartments!$A259,"")</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="str">
         <f>IF(Compartments!$A260&lt;&gt;"",Compartments!$A260,"")</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="str">
         <f>IF(Compartments!$A261&lt;&gt;"",Compartments!$A261,"")</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="str">
         <f>IF(Compartments!$A262&lt;&gt;"",Compartments!$A262,"")</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="str">
         <f>IF(Compartments!$A263&lt;&gt;"",Compartments!$A263,"")</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="str">
         <f>IF(Compartments!$A264&lt;&gt;"",Compartments!$A264,"")</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="str">
         <f>IF(Compartments!$A265&lt;&gt;"",Compartments!$A265,"")</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="str">
         <f>IF(Compartments!$A266&lt;&gt;"",Compartments!$A266,"")</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="str">
         <f>IF(Compartments!$A267&lt;&gt;"",Compartments!$A267,"")</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="str">
         <f>IF(Compartments!$A268&lt;&gt;"",Compartments!$A268,"")</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="str">
         <f>IF(Compartments!$A269&lt;&gt;"",Compartments!$A269,"")</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="str">
         <f>IF(Compartments!$A270&lt;&gt;"",Compartments!$A270,"")</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="str">
         <f>IF(Compartments!$A271&lt;&gt;"",Compartments!$A271,"")</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="str">
         <f>IF(Compartments!$A272&lt;&gt;"",Compartments!$A272,"")</f>
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="str">
         <f>IF(Compartments!$A273&lt;&gt;"",Compartments!$A273,"")</f>
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="str">
         <f>IF(Compartments!$A274&lt;&gt;"",Compartments!$A274,"")</f>
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="str">
         <f>IF(Compartments!$A275&lt;&gt;"",Compartments!$A275,"")</f>
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="str">
         <f>IF(Compartments!$A276&lt;&gt;"",Compartments!$A276,"")</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="str">
         <f>IF(Compartments!$A277&lt;&gt;"",Compartments!$A277,"")</f>
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="str">
         <f>IF(Compartments!$A278&lt;&gt;"",Compartments!$A278,"")</f>
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="str">
         <f>IF(Compartments!$A279&lt;&gt;"",Compartments!$A279,"")</f>
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="str">
         <f>IF(Compartments!$A280&lt;&gt;"",Compartments!$A280,"")</f>
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="str">
         <f>IF(Compartments!$A281&lt;&gt;"",Compartments!$A281,"")</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="str">
         <f>IF(Compartments!$A282&lt;&gt;"",Compartments!$A282,"")</f>
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="str">
         <f>IF(Compartments!$A283&lt;&gt;"",Compartments!$A283,"")</f>
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="str">
         <f>IF(Compartments!$A284&lt;&gt;"",Compartments!$A284,"")</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="str">
         <f>IF(Compartments!$A285&lt;&gt;"",Compartments!$A285,"")</f>
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="str">
         <f>IF(Compartments!$A286&lt;&gt;"",Compartments!$A286,"")</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="str">
         <f>IF(Compartments!$A287&lt;&gt;"",Compartments!$A287,"")</f>
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="str">
         <f>IF(Compartments!$A288&lt;&gt;"",Compartments!$A288,"")</f>
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="str">
         <f>IF(Compartments!$A289&lt;&gt;"",Compartments!$A289,"")</f>
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="str">
         <f>IF(Compartments!$A290&lt;&gt;"",Compartments!$A290,"")</f>
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="str">
         <f>IF(Compartments!$A291&lt;&gt;"",Compartments!$A291,"")</f>
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="str">
         <f>IF(Compartments!$A292&lt;&gt;"",Compartments!$A292,"")</f>
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="str">
         <f>IF(Compartments!$A293&lt;&gt;"",Compartments!$A293,"")</f>
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="str">
         <f>IF(Compartments!$A294&lt;&gt;"",Compartments!$A294,"")</f>
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="str">
         <f>IF(Compartments!$A295&lt;&gt;"",Compartments!$A295,"")</f>
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="str">
         <f>IF(Compartments!$A296&lt;&gt;"",Compartments!$A296,"")</f>
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="str">
         <f>IF(Compartments!$A297&lt;&gt;"",Compartments!$A297,"")</f>
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="str">
         <f>IF(Compartments!$A298&lt;&gt;"",Compartments!$A298,"")</f>
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="str">
         <f>IF(Compartments!$A299&lt;&gt;"",Compartments!$A299,"")</f>
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="str">
         <f>IF(Compartments!$A300&lt;&gt;"",Compartments!$A300,"")</f>
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="str">
         <f>IF(Compartments!$A301&lt;&gt;"",Compartments!$A301,"")</f>
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="str">
         <f>IF(Compartments!$A302&lt;&gt;"",Compartments!$A302,"")</f>
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="str">
         <f>IF(Compartments!$A303&lt;&gt;"",Compartments!$A303,"")</f>
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="str">
         <f>IF(Compartments!$A304&lt;&gt;"",Compartments!$A304,"")</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="str">
         <f>IF(Compartments!$A305&lt;&gt;"",Compartments!$A305,"")</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="str">
         <f>IF(Compartments!$A306&lt;&gt;"",Compartments!$A306,"")</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="str">
         <f>IF(Compartments!$A307&lt;&gt;"",Compartments!$A307,"")</f>
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="str">
         <f>IF(Compartments!$A308&lt;&gt;"",Compartments!$A308,"")</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="str">
         <f>IF(Compartments!$A309&lt;&gt;"",Compartments!$A309,"")</f>
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="str">
         <f>IF(Compartments!$A310&lt;&gt;"",Compartments!$A310,"")</f>
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="str">
         <f>IF(Compartments!$A311&lt;&gt;"",Compartments!$A311,"")</f>
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="str">
         <f>IF(Compartments!$A312&lt;&gt;"",Compartments!$A312,"")</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="str">
         <f>IF(Compartments!$A313&lt;&gt;"",Compartments!$A313,"")</f>
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="str">
         <f>IF(Compartments!$A314&lt;&gt;"",Compartments!$A314,"")</f>
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="str">
         <f>IF(Compartments!$A315&lt;&gt;"",Compartments!$A315,"")</f>
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="str">
         <f>IF(Compartments!$A316&lt;&gt;"",Compartments!$A316,"")</f>
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="str">
         <f>IF(Compartments!$A317&lt;&gt;"",Compartments!$A317,"")</f>
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="str">
         <f>IF(Compartments!$A318&lt;&gt;"",Compartments!$A318,"")</f>
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="str">
         <f>IF(Compartments!$A319&lt;&gt;"",Compartments!$A319,"")</f>
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="str">
         <f>IF(Compartments!$A320&lt;&gt;"",Compartments!$A320,"")</f>
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="str">
         <f>IF(Compartments!$A321&lt;&gt;"",Compartments!$A321,"")</f>
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="str">
         <f>IF(Compartments!$A322&lt;&gt;"",Compartments!$A322,"")</f>
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="str">
         <f>IF(Compartments!$A323&lt;&gt;"",Compartments!$A323,"")</f>
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="str">
         <f>IF(Compartments!$A324&lt;&gt;"",Compartments!$A324,"")</f>
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="str">
         <f>IF(Compartments!$A325&lt;&gt;"",Compartments!$A325,"")</f>
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="str">
         <f>IF(Compartments!$A326&lt;&gt;"",Compartments!$A326,"")</f>
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="str">
         <f>IF(Compartments!$A327&lt;&gt;"",Compartments!$A327,"")</f>
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="str">
         <f>IF(Compartments!$A328&lt;&gt;"",Compartments!$A328,"")</f>
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="str">
         <f>IF(Compartments!$A329&lt;&gt;"",Compartments!$A329,"")</f>
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="str">
         <f>IF(Compartments!$A330&lt;&gt;"",Compartments!$A330,"")</f>
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="str">
         <f>IF(Compartments!$A331&lt;&gt;"",Compartments!$A331,"")</f>
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="str">
         <f>IF(Compartments!$A332&lt;&gt;"",Compartments!$A332,"")</f>
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="str">
         <f>IF(Compartments!$A333&lt;&gt;"",Compartments!$A333,"")</f>
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="str">
         <f>IF(Compartments!$A334&lt;&gt;"",Compartments!$A334,"")</f>
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="str">
         <f>IF(Compartments!$A335&lt;&gt;"",Compartments!$A335,"")</f>
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="str">
         <f>IF(Compartments!$A336&lt;&gt;"",Compartments!$A336,"")</f>
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="str">
         <f>IF(Compartments!$A337&lt;&gt;"",Compartments!$A337,"")</f>
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="str">
         <f>IF(Compartments!$A338&lt;&gt;"",Compartments!$A338,"")</f>
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="str">
         <f>IF(Compartments!$A339&lt;&gt;"",Compartments!$A339,"")</f>
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="str">
         <f>IF(Compartments!$A340&lt;&gt;"",Compartments!$A340,"")</f>
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="str">
         <f>IF(Compartments!$A341&lt;&gt;"",Compartments!$A341,"")</f>
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="str">
         <f>IF(Compartments!$A342&lt;&gt;"",Compartments!$A342,"")</f>
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="str">
         <f>IF(Compartments!$A343&lt;&gt;"",Compartments!$A343,"")</f>
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="str">
         <f>IF(Compartments!$A344&lt;&gt;"",Compartments!$A344,"")</f>
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="str">
         <f>IF(Compartments!$A345&lt;&gt;"",Compartments!$A345,"")</f>
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="str">
         <f>IF(Compartments!$A346&lt;&gt;"",Compartments!$A346,"")</f>
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="str">
         <f>IF(Compartments!$A347&lt;&gt;"",Compartments!$A347,"")</f>
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="str">
         <f>IF(Compartments!$A348&lt;&gt;"",Compartments!$A348,"")</f>
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="str">
         <f>IF(Compartments!$A349&lt;&gt;"",Compartments!$A349,"")</f>
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="str">
         <f>IF(Compartments!$A350&lt;&gt;"",Compartments!$A350,"")</f>
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="str">
         <f>IF(Compartments!$A351&lt;&gt;"",Compartments!$A351,"")</f>
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="str">
         <f>IF(Compartments!$A352&lt;&gt;"",Compartments!$A352,"")</f>
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="str">
         <f>IF(Compartments!$A353&lt;&gt;"",Compartments!$A353,"")</f>
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="str">
         <f>IF(Compartments!$A354&lt;&gt;"",Compartments!$A354,"")</f>
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="str">
         <f>IF(Compartments!$A355&lt;&gt;"",Compartments!$A355,"")</f>
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="str">
         <f>IF(Compartments!$A356&lt;&gt;"",Compartments!$A356,"")</f>
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="str">
         <f>IF(Compartments!$A357&lt;&gt;"",Compartments!$A357,"")</f>
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="str">
         <f>IF(Compartments!$A358&lt;&gt;"",Compartments!$A358,"")</f>
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="str">
         <f>IF(Compartments!$A359&lt;&gt;"",Compartments!$A359,"")</f>
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="str">
         <f>IF(Compartments!$A360&lt;&gt;"",Compartments!$A360,"")</f>
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="str">
         <f>IF(Compartments!$A361&lt;&gt;"",Compartments!$A361,"")</f>
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="str">
         <f>IF(Compartments!$A362&lt;&gt;"",Compartments!$A362,"")</f>
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="str">
         <f>IF(Compartments!$A363&lt;&gt;"",Compartments!$A363,"")</f>
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="str">
         <f>IF(Compartments!$A364&lt;&gt;"",Compartments!$A364,"")</f>
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="str">
         <f>IF(Compartments!$A365&lt;&gt;"",Compartments!$A365,"")</f>
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="str">
         <f>IF(Compartments!$A366&lt;&gt;"",Compartments!$A366,"")</f>
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="str">
         <f>IF(Compartments!$A367&lt;&gt;"",Compartments!$A367,"")</f>
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="str">
         <f>IF(Compartments!$A368&lt;&gt;"",Compartments!$A368,"")</f>
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="str">
         <f>IF(Compartments!$A369&lt;&gt;"",Compartments!$A369,"")</f>
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="str">
         <f>IF(Compartments!$A370&lt;&gt;"",Compartments!$A370,"")</f>
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="str">
         <f>IF(Compartments!$A371&lt;&gt;"",Compartments!$A371,"")</f>
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="str">
         <f>IF(Compartments!$A372&lt;&gt;"",Compartments!$A372,"")</f>
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="str">
         <f>IF(Compartments!$A373&lt;&gt;"",Compartments!$A373,"")</f>
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="str">
         <f>IF(Compartments!$A374&lt;&gt;"",Compartments!$A374,"")</f>
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="str">
         <f>IF(Compartments!$A375&lt;&gt;"",Compartments!$A375,"")</f>
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="str">
         <f>IF(Compartments!$A376&lt;&gt;"",Compartments!$A376,"")</f>
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="str">
         <f>IF(Compartments!$A377&lt;&gt;"",Compartments!$A377,"")</f>
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="str">
         <f>IF(Compartments!$A378&lt;&gt;"",Compartments!$A378,"")</f>
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="str">
         <f>IF(Compartments!$A379&lt;&gt;"",Compartments!$A379,"")</f>
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="str">
         <f>IF(Compartments!$A380&lt;&gt;"",Compartments!$A380,"")</f>
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="str">
         <f>IF(Compartments!$A381&lt;&gt;"",Compartments!$A381,"")</f>
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="str">
         <f>IF(Compartments!$A382&lt;&gt;"",Compartments!$A382,"")</f>
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="str">
         <f>IF(Compartments!$A383&lt;&gt;"",Compartments!$A383,"")</f>
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="str">
         <f>IF(Compartments!$A384&lt;&gt;"",Compartments!$A384,"")</f>
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="str">
         <f>IF(Compartments!$A385&lt;&gt;"",Compartments!$A385,"")</f>
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="str">
         <f>IF(Compartments!$A386&lt;&gt;"",Compartments!$A386,"")</f>
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="str">
         <f>IF(Compartments!$A387&lt;&gt;"",Compartments!$A387,"")</f>
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="str">
         <f>IF(Compartments!$A388&lt;&gt;"",Compartments!$A388,"")</f>
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="str">
         <f>IF(Compartments!$A389&lt;&gt;"",Compartments!$A389,"")</f>
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="str">
         <f>IF(Compartments!$A390&lt;&gt;"",Compartments!$A390,"")</f>
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="str">
         <f>IF(Compartments!$A391&lt;&gt;"",Compartments!$A391,"")</f>
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="str">
         <f>IF(Compartments!$A392&lt;&gt;"",Compartments!$A392,"")</f>
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="str">
         <f>IF(Compartments!$A393&lt;&gt;"",Compartments!$A393,"")</f>
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="str">
         <f>IF(Compartments!$A394&lt;&gt;"",Compartments!$A394,"")</f>
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="str">
         <f>IF(Compartments!$A395&lt;&gt;"",Compartments!$A395,"")</f>
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="str">
         <f>IF(Compartments!$A396&lt;&gt;"",Compartments!$A396,"")</f>
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="str">
         <f>IF(Compartments!$A397&lt;&gt;"",Compartments!$A397,"")</f>
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="str">
         <f>IF(Compartments!$A398&lt;&gt;"",Compartments!$A398,"")</f>
         <v/>
@@ -5639,24 +7588,24 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5676,7 +7625,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -5685,7 +7634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -5700,7 +7649,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5761,24 +7710,24 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5801,10 +7750,10 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -5813,7 +7762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -5827,7 +7776,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -5899,17 +7848,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5920,7 +7869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -5944,20 +7893,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1EAFB5-C4B0-491C-B03B-D10386E1B6D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1EAFB5-C4B0-491C-B03B-D10386E1B6D4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -5965,7 +7912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -5973,7 +7920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -5983,28 +7930,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A2575B-90FD-4432-ABB5-1D1C9A3EC31C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A2575B-90FD-4432-ABB5-1D1C9A3EC31C}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -6024,7 +7972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -6038,7 +7986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -6052,7 +8000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -6067,5 +8015,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/atomica/framework_template_advanced.xlsx
+++ b/atomica/framework_template_advanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/atomica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{330713E0-283E-D54D-8DD1-87D50D224028}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AC7B7039-4239-C54A-8946-13D7284D5592}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -42,16 +42,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">For instructions on how to fill this out, please see </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>cascade.tools/ug-frw-databookpages</t>
+          <t>For instructions on how to fill this out, please see cascade.tools/ug-frw-databookpages</t>
         </r>
       </text>
     </comment>
@@ -983,7 +974,6 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
         </r>
@@ -992,7 +982,6 @@
             <sz val="8"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1168,18 +1157,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-transitions</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-transitions
 </t>
         </r>
       </text>
@@ -1842,18 +1821,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-characteristics
 </t>
         </r>
       </text>
@@ -2337,27 +2306,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
+          </rPr>
+          <t xml:space="preserve">For further instructions on how to fill this out, please see cascade.tools/ug-frw-parameters 
 </t>
         </r>
       </text>
@@ -2557,11 +2507,72 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Microsoft Office User</author>
+    <author>Romesh</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6BBF7A4A-B30B-A340-BB28-847FCD6C1C47}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B935E62C-0938-0C4C-AF10-F1E1867CC167}">
       <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Specify the name of your cascade in this cell. In the cells below, specify the names of your cascade's stages
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-cascades</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E94A098B-5A50-AA4C-99A6-0D4002426718}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">In this column, specify which compartments and characteristics make up each cascade stage. You should specify them as a comma separated list of code names e.g., 'sus, inf, rec'
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
         <r>
           <rPr>
             <sz val="10"/>
@@ -2573,7 +2584,7 @@
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
+            <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <scheme val="minor"/>
@@ -2748,9 +2759,6 @@
     <t>comp1</t>
   </si>
   <si>
-    <t>main cascade</t>
-  </si>
-  <si>
     <t>Constituents</t>
   </si>
   <si>
@@ -2816,12 +2824,15 @@
   <si>
     <t>This is a template cascade. For instructions on how to fill it out, please see: cascade.tools/user-guide</t>
   </si>
+  <si>
+    <t>Cascade name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2856,12 +2867,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -2869,6 +2874,28 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -3358,18 +3385,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3412,9 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3403,18 +3432,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3440,8 +3469,8 @@
   </sheetPr>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="A1:B1 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3479,7 +3508,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -3571,9 +3600,7 @@
   </sheetPr>
   <dimension ref="A1:OH398"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3582,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="str">
         <f>IF(Compartments!$A2&lt;&gt;"",Compartments!$A2,"")</f>
@@ -7588,7 +7615,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H1" activeCellId="1" sqref="A1:D1 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7625,7 +7652,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -7711,7 +7738,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="J1" activeCellId="1" sqref="A1:H1 J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7750,10 +7777,10 @@
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -7767,7 +7794,7 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -7781,7 +7808,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -7871,10 +7898,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -7896,7 +7923,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1EAFB5-C4B0-491C-B03B-D10386E1B6D4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7906,15 +7935,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
@@ -7922,7 +7951,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>29</v>
@@ -7980,10 +8009,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7994,18 +8023,18 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/atomica/framework_template_advanced.xlsx
+++ b/atomica/framework_template_advanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/atomica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AC7B7039-4239-C54A-8946-13D7284D5592}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56626EDB-8457-4295-AAB3-A50EBEF68FE9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,14 @@
     <sheet name="Cascades" sheetId="7" r:id="rId8"/>
     <sheet name="Plots" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -76,6 +83,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Romesh</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{8F11EEB6-017C-4E97-8DFB-6E8BA3F55C2C}">
@@ -1117,6 +1125,19 @@
             <scheme val="minor"/>
           </rPr>
           <t>For further instructions on how to fill this out, please see cascade.tools/ug-frw-compartments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{DC11A7F4-D37B-4E6C-A328-CF93337111F1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text entered here will appear as a comment in the title row of data entry tables in the databook</t>
         </r>
       </text>
     </comment>
@@ -1171,6 +1192,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Romesh</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A81A74DD-AC0E-4B65-846B-CB2954186FEC}">
@@ -1887,6 +1909,19 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="1" shapeId="0" xr:uid="{1C23A732-9959-4088-8261-754697652C47}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text entered here will appear as a comment in the title row of data entry tables in the databook</t>
         </r>
       </text>
     </comment>
@@ -1898,6 +1933,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Romesh</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E2FBD3E0-0A11-1C4B-B047-ED175ED137D6}">
@@ -2381,6 +2417,19 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="1" shapeId="0" xr:uid="{334442D1-1566-452B-87A7-78190747C88B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Text entered here will appear as a comment in the title row of data entry tables in the databook</t>
         </r>
       </text>
     </comment>
@@ -2664,7 +2713,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Datasheet Code Name</t>
   </si>
@@ -2827,12 +2876,15 @@
   <si>
     <t>Cascade name</t>
   </si>
+  <si>
+    <t>Guidance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2898,6 +2950,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3377,13 +3435,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="74.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
@@ -3391,7 +3449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="234.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -3416,13 +3474,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3430,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -3438,7 +3496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -3470,25 +3528,25 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="A1:B1 H1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3516,10 +3574,12 @@
       <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -3532,7 +3592,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -3602,12 +3662,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -5200,2383 +5260,2383 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f>IF(Compartments!$A2&lt;&gt;"",Compartments!$A2,"")</f>
         <v>comp1</v>
       </c>
     </row>
-    <row r="3" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>IF(Compartments!$A3&lt;&gt;"",Compartments!$A3,"")</f>
         <v>comp2</v>
       </c>
     </row>
-    <row r="4" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f>IF(Compartments!$A4&lt;&gt;"",Compartments!$A4,"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f>IF(Compartments!$A5&lt;&gt;"",Compartments!$A5,"")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f>IF(Compartments!$A6&lt;&gt;"",Compartments!$A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f>IF(Compartments!$A7&lt;&gt;"",Compartments!$A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f>IF(Compartments!$A8&lt;&gt;"",Compartments!$A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f>IF(Compartments!$A9&lt;&gt;"",Compartments!$A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f>IF(Compartments!$A10&lt;&gt;"",Compartments!$A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f>IF(Compartments!$A11&lt;&gt;"",Compartments!$A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f>IF(Compartments!$A12&lt;&gt;"",Compartments!$A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f>IF(Compartments!$A13&lt;&gt;"",Compartments!$A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f>IF(Compartments!$A14&lt;&gt;"",Compartments!$A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f>IF(Compartments!$A15&lt;&gt;"",Compartments!$A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:398" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:398" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f>IF(Compartments!$A16&lt;&gt;"",Compartments!$A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f>IF(Compartments!$A17&lt;&gt;"",Compartments!$A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f>IF(Compartments!$A18&lt;&gt;"",Compartments!$A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f>IF(Compartments!$A19&lt;&gt;"",Compartments!$A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f>IF(Compartments!$A20&lt;&gt;"",Compartments!$A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f>IF(Compartments!$A21&lt;&gt;"",Compartments!$A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f>IF(Compartments!$A22&lt;&gt;"",Compartments!$A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f>IF(Compartments!$A23&lt;&gt;"",Compartments!$A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f>IF(Compartments!$A24&lt;&gt;"",Compartments!$A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f>IF(Compartments!$A25&lt;&gt;"",Compartments!$A25,"")</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f>IF(Compartments!$A26&lt;&gt;"",Compartments!$A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f>IF(Compartments!$A27&lt;&gt;"",Compartments!$A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f>IF(Compartments!$A28&lt;&gt;"",Compartments!$A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f>IF(Compartments!$A29&lt;&gt;"",Compartments!$A29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f>IF(Compartments!$A30&lt;&gt;"",Compartments!$A30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f>IF(Compartments!$A31&lt;&gt;"",Compartments!$A31,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f>IF(Compartments!$A32&lt;&gt;"",Compartments!$A32,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f>IF(Compartments!$A33&lt;&gt;"",Compartments!$A33,"")</f>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f>IF(Compartments!$A34&lt;&gt;"",Compartments!$A34,"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f>IF(Compartments!$A35&lt;&gt;"",Compartments!$A35,"")</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="str">
         <f>IF(Compartments!$A36&lt;&gt;"",Compartments!$A36,"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="str">
         <f>IF(Compartments!$A37&lt;&gt;"",Compartments!$A37,"")</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="str">
         <f>IF(Compartments!$A38&lt;&gt;"",Compartments!$A38,"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="str">
         <f>IF(Compartments!$A39&lt;&gt;"",Compartments!$A39,"")</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
         <f>IF(Compartments!$A40&lt;&gt;"",Compartments!$A40,"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
         <f>IF(Compartments!$A41&lt;&gt;"",Compartments!$A41,"")</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
         <f>IF(Compartments!$A42&lt;&gt;"",Compartments!$A42,"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
         <f>IF(Compartments!$A43&lt;&gt;"",Compartments!$A43,"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="str">
         <f>IF(Compartments!$A44&lt;&gt;"",Compartments!$A44,"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
         <f>IF(Compartments!$A45&lt;&gt;"",Compartments!$A45,"")</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="str">
         <f>IF(Compartments!$A46&lt;&gt;"",Compartments!$A46,"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
         <f>IF(Compartments!$A47&lt;&gt;"",Compartments!$A47,"")</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
         <f>IF(Compartments!$A48&lt;&gt;"",Compartments!$A48,"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f>IF(Compartments!$A49&lt;&gt;"",Compartments!$A49,"")</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f>IF(Compartments!$A50&lt;&gt;"",Compartments!$A50,"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="str">
         <f>IF(Compartments!$A51&lt;&gt;"",Compartments!$A51,"")</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="str">
         <f>IF(Compartments!$A52&lt;&gt;"",Compartments!$A52,"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="str">
         <f>IF(Compartments!$A53&lt;&gt;"",Compartments!$A53,"")</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="str">
         <f>IF(Compartments!$A54&lt;&gt;"",Compartments!$A54,"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="str">
         <f>IF(Compartments!$A55&lt;&gt;"",Compartments!$A55,"")</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="str">
         <f>IF(Compartments!$A56&lt;&gt;"",Compartments!$A56,"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="str">
         <f>IF(Compartments!$A57&lt;&gt;"",Compartments!$A57,"")</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="str">
         <f>IF(Compartments!$A58&lt;&gt;"",Compartments!$A58,"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="str">
         <f>IF(Compartments!$A59&lt;&gt;"",Compartments!$A59,"")</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="str">
         <f>IF(Compartments!$A60&lt;&gt;"",Compartments!$A60,"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="str">
         <f>IF(Compartments!$A61&lt;&gt;"",Compartments!$A61,"")</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="str">
         <f>IF(Compartments!$A62&lt;&gt;"",Compartments!$A62,"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="str">
         <f>IF(Compartments!$A63&lt;&gt;"",Compartments!$A63,"")</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="str">
         <f>IF(Compartments!$A64&lt;&gt;"",Compartments!$A64,"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="str">
         <f>IF(Compartments!$A65&lt;&gt;"",Compartments!$A65,"")</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f>IF(Compartments!$A66&lt;&gt;"",Compartments!$A66,"")</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="str">
         <f>IF(Compartments!$A67&lt;&gt;"",Compartments!$A67,"")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="str">
         <f>IF(Compartments!$A68&lt;&gt;"",Compartments!$A68,"")</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="str">
         <f>IF(Compartments!$A69&lt;&gt;"",Compartments!$A69,"")</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="str">
         <f>IF(Compartments!$A70&lt;&gt;"",Compartments!$A70,"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="str">
         <f>IF(Compartments!$A71&lt;&gt;"",Compartments!$A71,"")</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="str">
         <f>IF(Compartments!$A72&lt;&gt;"",Compartments!$A72,"")</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="str">
         <f>IF(Compartments!$A73&lt;&gt;"",Compartments!$A73,"")</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="str">
         <f>IF(Compartments!$A74&lt;&gt;"",Compartments!$A74,"")</f>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="str">
         <f>IF(Compartments!$A75&lt;&gt;"",Compartments!$A75,"")</f>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="str">
         <f>IF(Compartments!$A76&lt;&gt;"",Compartments!$A76,"")</f>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="str">
         <f>IF(Compartments!$A77&lt;&gt;"",Compartments!$A77,"")</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="str">
         <f>IF(Compartments!$A78&lt;&gt;"",Compartments!$A78,"")</f>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="str">
         <f>IF(Compartments!$A79&lt;&gt;"",Compartments!$A79,"")</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="str">
         <f>IF(Compartments!$A80&lt;&gt;"",Compartments!$A80,"")</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="str">
         <f>IF(Compartments!$A81&lt;&gt;"",Compartments!$A81,"")</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="str">
         <f>IF(Compartments!$A82&lt;&gt;"",Compartments!$A82,"")</f>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="str">
         <f>IF(Compartments!$A83&lt;&gt;"",Compartments!$A83,"")</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="str">
         <f>IF(Compartments!$A84&lt;&gt;"",Compartments!$A84,"")</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="str">
         <f>IF(Compartments!$A85&lt;&gt;"",Compartments!$A85,"")</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="str">
         <f>IF(Compartments!$A86&lt;&gt;"",Compartments!$A86,"")</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="str">
         <f>IF(Compartments!$A87&lt;&gt;"",Compartments!$A87,"")</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="str">
         <f>IF(Compartments!$A88&lt;&gt;"",Compartments!$A88,"")</f>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="str">
         <f>IF(Compartments!$A89&lt;&gt;"",Compartments!$A89,"")</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="str">
         <f>IF(Compartments!$A90&lt;&gt;"",Compartments!$A90,"")</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="str">
         <f>IF(Compartments!$A91&lt;&gt;"",Compartments!$A91,"")</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="str">
         <f>IF(Compartments!$A92&lt;&gt;"",Compartments!$A92,"")</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="str">
         <f>IF(Compartments!$A93&lt;&gt;"",Compartments!$A93,"")</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="str">
         <f>IF(Compartments!$A94&lt;&gt;"",Compartments!$A94,"")</f>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="str">
         <f>IF(Compartments!$A95&lt;&gt;"",Compartments!$A95,"")</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="str">
         <f>IF(Compartments!$A96&lt;&gt;"",Compartments!$A96,"")</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="str">
         <f>IF(Compartments!$A97&lt;&gt;"",Compartments!$A97,"")</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="str">
         <f>IF(Compartments!$A98&lt;&gt;"",Compartments!$A98,"")</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="str">
         <f>IF(Compartments!$A99&lt;&gt;"",Compartments!$A99,"")</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="str">
         <f>IF(Compartments!$A100&lt;&gt;"",Compartments!$A100,"")</f>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="str">
         <f>IF(Compartments!$A101&lt;&gt;"",Compartments!$A101,"")</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="str">
         <f>IF(Compartments!$A102&lt;&gt;"",Compartments!$A102,"")</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="str">
         <f>IF(Compartments!$A103&lt;&gt;"",Compartments!$A103,"")</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="str">
         <f>IF(Compartments!$A104&lt;&gt;"",Compartments!$A104,"")</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="str">
         <f>IF(Compartments!$A105&lt;&gt;"",Compartments!$A105,"")</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="str">
         <f>IF(Compartments!$A106&lt;&gt;"",Compartments!$A106,"")</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="str">
         <f>IF(Compartments!$A107&lt;&gt;"",Compartments!$A107,"")</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="str">
         <f>IF(Compartments!$A108&lt;&gt;"",Compartments!$A108,"")</f>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="str">
         <f>IF(Compartments!$A109&lt;&gt;"",Compartments!$A109,"")</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="str">
         <f>IF(Compartments!$A110&lt;&gt;"",Compartments!$A110,"")</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="str">
         <f>IF(Compartments!$A111&lt;&gt;"",Compartments!$A111,"")</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="str">
         <f>IF(Compartments!$A112&lt;&gt;"",Compartments!$A112,"")</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="str">
         <f>IF(Compartments!$A113&lt;&gt;"",Compartments!$A113,"")</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="str">
         <f>IF(Compartments!$A114&lt;&gt;"",Compartments!$A114,"")</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="str">
         <f>IF(Compartments!$A115&lt;&gt;"",Compartments!$A115,"")</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="str">
         <f>IF(Compartments!$A116&lt;&gt;"",Compartments!$A116,"")</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="str">
         <f>IF(Compartments!$A117&lt;&gt;"",Compartments!$A117,"")</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="str">
         <f>IF(Compartments!$A118&lt;&gt;"",Compartments!$A118,"")</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="str">
         <f>IF(Compartments!$A119&lt;&gt;"",Compartments!$A119,"")</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="str">
         <f>IF(Compartments!$A120&lt;&gt;"",Compartments!$A120,"")</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="str">
         <f>IF(Compartments!$A121&lt;&gt;"",Compartments!$A121,"")</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="str">
         <f>IF(Compartments!$A122&lt;&gt;"",Compartments!$A122,"")</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="str">
         <f>IF(Compartments!$A123&lt;&gt;"",Compartments!$A123,"")</f>
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="str">
         <f>IF(Compartments!$A124&lt;&gt;"",Compartments!$A124,"")</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="str">
         <f>IF(Compartments!$A125&lt;&gt;"",Compartments!$A125,"")</f>
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="str">
         <f>IF(Compartments!$A126&lt;&gt;"",Compartments!$A126,"")</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="str">
         <f>IF(Compartments!$A127&lt;&gt;"",Compartments!$A127,"")</f>
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="str">
         <f>IF(Compartments!$A128&lt;&gt;"",Compartments!$A128,"")</f>
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="str">
         <f>IF(Compartments!$A129&lt;&gt;"",Compartments!$A129,"")</f>
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="str">
         <f>IF(Compartments!$A130&lt;&gt;"",Compartments!$A130,"")</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="str">
         <f>IF(Compartments!$A131&lt;&gt;"",Compartments!$A131,"")</f>
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="str">
         <f>IF(Compartments!$A132&lt;&gt;"",Compartments!$A132,"")</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="str">
         <f>IF(Compartments!$A133&lt;&gt;"",Compartments!$A133,"")</f>
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="str">
         <f>IF(Compartments!$A134&lt;&gt;"",Compartments!$A134,"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="str">
         <f>IF(Compartments!$A135&lt;&gt;"",Compartments!$A135,"")</f>
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="str">
         <f>IF(Compartments!$A136&lt;&gt;"",Compartments!$A136,"")</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="str">
         <f>IF(Compartments!$A137&lt;&gt;"",Compartments!$A137,"")</f>
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="str">
         <f>IF(Compartments!$A138&lt;&gt;"",Compartments!$A138,"")</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="str">
         <f>IF(Compartments!$A139&lt;&gt;"",Compartments!$A139,"")</f>
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="str">
         <f>IF(Compartments!$A140&lt;&gt;"",Compartments!$A140,"")</f>
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="str">
         <f>IF(Compartments!$A141&lt;&gt;"",Compartments!$A141,"")</f>
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="str">
         <f>IF(Compartments!$A142&lt;&gt;"",Compartments!$A142,"")</f>
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="str">
         <f>IF(Compartments!$A143&lt;&gt;"",Compartments!$A143,"")</f>
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="str">
         <f>IF(Compartments!$A144&lt;&gt;"",Compartments!$A144,"")</f>
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="str">
         <f>IF(Compartments!$A145&lt;&gt;"",Compartments!$A145,"")</f>
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="str">
         <f>IF(Compartments!$A146&lt;&gt;"",Compartments!$A146,"")</f>
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="str">
         <f>IF(Compartments!$A147&lt;&gt;"",Compartments!$A147,"")</f>
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="str">
         <f>IF(Compartments!$A148&lt;&gt;"",Compartments!$A148,"")</f>
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="str">
         <f>IF(Compartments!$A149&lt;&gt;"",Compartments!$A149,"")</f>
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="str">
         <f>IF(Compartments!$A150&lt;&gt;"",Compartments!$A150,"")</f>
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="str">
         <f>IF(Compartments!$A151&lt;&gt;"",Compartments!$A151,"")</f>
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="str">
         <f>IF(Compartments!$A152&lt;&gt;"",Compartments!$A152,"")</f>
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="str">
         <f>IF(Compartments!$A153&lt;&gt;"",Compartments!$A153,"")</f>
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="str">
         <f>IF(Compartments!$A154&lt;&gt;"",Compartments!$A154,"")</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="str">
         <f>IF(Compartments!$A155&lt;&gt;"",Compartments!$A155,"")</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="str">
         <f>IF(Compartments!$A156&lt;&gt;"",Compartments!$A156,"")</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="str">
         <f>IF(Compartments!$A157&lt;&gt;"",Compartments!$A157,"")</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="str">
         <f>IF(Compartments!$A158&lt;&gt;"",Compartments!$A158,"")</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="str">
         <f>IF(Compartments!$A159&lt;&gt;"",Compartments!$A159,"")</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="str">
         <f>IF(Compartments!$A160&lt;&gt;"",Compartments!$A160,"")</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="str">
         <f>IF(Compartments!$A161&lt;&gt;"",Compartments!$A161,"")</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="str">
         <f>IF(Compartments!$A162&lt;&gt;"",Compartments!$A162,"")</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="str">
         <f>IF(Compartments!$A163&lt;&gt;"",Compartments!$A163,"")</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="str">
         <f>IF(Compartments!$A164&lt;&gt;"",Compartments!$A164,"")</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="str">
         <f>IF(Compartments!$A165&lt;&gt;"",Compartments!$A165,"")</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="str">
         <f>IF(Compartments!$A166&lt;&gt;"",Compartments!$A166,"")</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="str">
         <f>IF(Compartments!$A167&lt;&gt;"",Compartments!$A167,"")</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="str">
         <f>IF(Compartments!$A168&lt;&gt;"",Compartments!$A168,"")</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="str">
         <f>IF(Compartments!$A169&lt;&gt;"",Compartments!$A169,"")</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="str">
         <f>IF(Compartments!$A170&lt;&gt;"",Compartments!$A170,"")</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="str">
         <f>IF(Compartments!$A171&lt;&gt;"",Compartments!$A171,"")</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="str">
         <f>IF(Compartments!$A172&lt;&gt;"",Compartments!$A172,"")</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="str">
         <f>IF(Compartments!$A173&lt;&gt;"",Compartments!$A173,"")</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="str">
         <f>IF(Compartments!$A174&lt;&gt;"",Compartments!$A174,"")</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="str">
         <f>IF(Compartments!$A175&lt;&gt;"",Compartments!$A175,"")</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="str">
         <f>IF(Compartments!$A176&lt;&gt;"",Compartments!$A176,"")</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="str">
         <f>IF(Compartments!$A177&lt;&gt;"",Compartments!$A177,"")</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="str">
         <f>IF(Compartments!$A178&lt;&gt;"",Compartments!$A178,"")</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="str">
         <f>IF(Compartments!$A179&lt;&gt;"",Compartments!$A179,"")</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="str">
         <f>IF(Compartments!$A180&lt;&gt;"",Compartments!$A180,"")</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="str">
         <f>IF(Compartments!$A181&lt;&gt;"",Compartments!$A181,"")</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="str">
         <f>IF(Compartments!$A182&lt;&gt;"",Compartments!$A182,"")</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="str">
         <f>IF(Compartments!$A183&lt;&gt;"",Compartments!$A183,"")</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="str">
         <f>IF(Compartments!$A184&lt;&gt;"",Compartments!$A184,"")</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="str">
         <f>IF(Compartments!$A185&lt;&gt;"",Compartments!$A185,"")</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="str">
         <f>IF(Compartments!$A186&lt;&gt;"",Compartments!$A186,"")</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="str">
         <f>IF(Compartments!$A187&lt;&gt;"",Compartments!$A187,"")</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="str">
         <f>IF(Compartments!$A188&lt;&gt;"",Compartments!$A188,"")</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="str">
         <f>IF(Compartments!$A189&lt;&gt;"",Compartments!$A189,"")</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="str">
         <f>IF(Compartments!$A190&lt;&gt;"",Compartments!$A190,"")</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="str">
         <f>IF(Compartments!$A191&lt;&gt;"",Compartments!$A191,"")</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="str">
         <f>IF(Compartments!$A192&lt;&gt;"",Compartments!$A192,"")</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="str">
         <f>IF(Compartments!$A193&lt;&gt;"",Compartments!$A193,"")</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="str">
         <f>IF(Compartments!$A194&lt;&gt;"",Compartments!$A194,"")</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="str">
         <f>IF(Compartments!$A195&lt;&gt;"",Compartments!$A195,"")</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="str">
         <f>IF(Compartments!$A196&lt;&gt;"",Compartments!$A196,"")</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="str">
         <f>IF(Compartments!$A197&lt;&gt;"",Compartments!$A197,"")</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="str">
         <f>IF(Compartments!$A198&lt;&gt;"",Compartments!$A198,"")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="str">
         <f>IF(Compartments!$A199&lt;&gt;"",Compartments!$A199,"")</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="str">
         <f>IF(Compartments!$A200&lt;&gt;"",Compartments!$A200,"")</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="str">
         <f>IF(Compartments!$A201&lt;&gt;"",Compartments!$A201,"")</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="str">
         <f>IF(Compartments!$A202&lt;&gt;"",Compartments!$A202,"")</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="str">
         <f>IF(Compartments!$A203&lt;&gt;"",Compartments!$A203,"")</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="str">
         <f>IF(Compartments!$A204&lt;&gt;"",Compartments!$A204,"")</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="str">
         <f>IF(Compartments!$A205&lt;&gt;"",Compartments!$A205,"")</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="str">
         <f>IF(Compartments!$A206&lt;&gt;"",Compartments!$A206,"")</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="str">
         <f>IF(Compartments!$A207&lt;&gt;"",Compartments!$A207,"")</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="str">
         <f>IF(Compartments!$A208&lt;&gt;"",Compartments!$A208,"")</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="str">
         <f>IF(Compartments!$A209&lt;&gt;"",Compartments!$A209,"")</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="str">
         <f>IF(Compartments!$A210&lt;&gt;"",Compartments!$A210,"")</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="str">
         <f>IF(Compartments!$A211&lt;&gt;"",Compartments!$A211,"")</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="str">
         <f>IF(Compartments!$A212&lt;&gt;"",Compartments!$A212,"")</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="str">
         <f>IF(Compartments!$A213&lt;&gt;"",Compartments!$A213,"")</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="str">
         <f>IF(Compartments!$A214&lt;&gt;"",Compartments!$A214,"")</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="str">
         <f>IF(Compartments!$A215&lt;&gt;"",Compartments!$A215,"")</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="str">
         <f>IF(Compartments!$A216&lt;&gt;"",Compartments!$A216,"")</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="str">
         <f>IF(Compartments!$A217&lt;&gt;"",Compartments!$A217,"")</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="str">
         <f>IF(Compartments!$A218&lt;&gt;"",Compartments!$A218,"")</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="str">
         <f>IF(Compartments!$A219&lt;&gt;"",Compartments!$A219,"")</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="str">
         <f>IF(Compartments!$A220&lt;&gt;"",Compartments!$A220,"")</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="str">
         <f>IF(Compartments!$A221&lt;&gt;"",Compartments!$A221,"")</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="str">
         <f>IF(Compartments!$A222&lt;&gt;"",Compartments!$A222,"")</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="str">
         <f>IF(Compartments!$A223&lt;&gt;"",Compartments!$A223,"")</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="str">
         <f>IF(Compartments!$A224&lt;&gt;"",Compartments!$A224,"")</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="str">
         <f>IF(Compartments!$A225&lt;&gt;"",Compartments!$A225,"")</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="str">
         <f>IF(Compartments!$A226&lt;&gt;"",Compartments!$A226,"")</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="str">
         <f>IF(Compartments!$A227&lt;&gt;"",Compartments!$A227,"")</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="str">
         <f>IF(Compartments!$A228&lt;&gt;"",Compartments!$A228,"")</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="str">
         <f>IF(Compartments!$A229&lt;&gt;"",Compartments!$A229,"")</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="str">
         <f>IF(Compartments!$A230&lt;&gt;"",Compartments!$A230,"")</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="str">
         <f>IF(Compartments!$A231&lt;&gt;"",Compartments!$A231,"")</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="str">
         <f>IF(Compartments!$A232&lt;&gt;"",Compartments!$A232,"")</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="str">
         <f>IF(Compartments!$A233&lt;&gt;"",Compartments!$A233,"")</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="str">
         <f>IF(Compartments!$A234&lt;&gt;"",Compartments!$A234,"")</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="str">
         <f>IF(Compartments!$A235&lt;&gt;"",Compartments!$A235,"")</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="str">
         <f>IF(Compartments!$A236&lt;&gt;"",Compartments!$A236,"")</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="str">
         <f>IF(Compartments!$A237&lt;&gt;"",Compartments!$A237,"")</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="str">
         <f>IF(Compartments!$A238&lt;&gt;"",Compartments!$A238,"")</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="str">
         <f>IF(Compartments!$A239&lt;&gt;"",Compartments!$A239,"")</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="str">
         <f>IF(Compartments!$A240&lt;&gt;"",Compartments!$A240,"")</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="str">
         <f>IF(Compartments!$A241&lt;&gt;"",Compartments!$A241,"")</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="str">
         <f>IF(Compartments!$A242&lt;&gt;"",Compartments!$A242,"")</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="str">
         <f>IF(Compartments!$A243&lt;&gt;"",Compartments!$A243,"")</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="str">
         <f>IF(Compartments!$A244&lt;&gt;"",Compartments!$A244,"")</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="str">
         <f>IF(Compartments!$A245&lt;&gt;"",Compartments!$A245,"")</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="str">
         <f>IF(Compartments!$A246&lt;&gt;"",Compartments!$A246,"")</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="str">
         <f>IF(Compartments!$A247&lt;&gt;"",Compartments!$A247,"")</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="str">
         <f>IF(Compartments!$A248&lt;&gt;"",Compartments!$A248,"")</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="str">
         <f>IF(Compartments!$A249&lt;&gt;"",Compartments!$A249,"")</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="str">
         <f>IF(Compartments!$A250&lt;&gt;"",Compartments!$A250,"")</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="str">
         <f>IF(Compartments!$A251&lt;&gt;"",Compartments!$A251,"")</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="str">
         <f>IF(Compartments!$A252&lt;&gt;"",Compartments!$A252,"")</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="str">
         <f>IF(Compartments!$A253&lt;&gt;"",Compartments!$A253,"")</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="str">
         <f>IF(Compartments!$A254&lt;&gt;"",Compartments!$A254,"")</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="str">
         <f>IF(Compartments!$A255&lt;&gt;"",Compartments!$A255,"")</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="str">
         <f>IF(Compartments!$A256&lt;&gt;"",Compartments!$A256,"")</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="str">
         <f>IF(Compartments!$A257&lt;&gt;"",Compartments!$A257,"")</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="str">
         <f>IF(Compartments!$A258&lt;&gt;"",Compartments!$A258,"")</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="str">
         <f>IF(Compartments!$A259&lt;&gt;"",Compartments!$A259,"")</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="str">
         <f>IF(Compartments!$A260&lt;&gt;"",Compartments!$A260,"")</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="str">
         <f>IF(Compartments!$A261&lt;&gt;"",Compartments!$A261,"")</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="str">
         <f>IF(Compartments!$A262&lt;&gt;"",Compartments!$A262,"")</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="str">
         <f>IF(Compartments!$A263&lt;&gt;"",Compartments!$A263,"")</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="str">
         <f>IF(Compartments!$A264&lt;&gt;"",Compartments!$A264,"")</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="str">
         <f>IF(Compartments!$A265&lt;&gt;"",Compartments!$A265,"")</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="str">
         <f>IF(Compartments!$A266&lt;&gt;"",Compartments!$A266,"")</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="str">
         <f>IF(Compartments!$A267&lt;&gt;"",Compartments!$A267,"")</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="str">
         <f>IF(Compartments!$A268&lt;&gt;"",Compartments!$A268,"")</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="str">
         <f>IF(Compartments!$A269&lt;&gt;"",Compartments!$A269,"")</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="str">
         <f>IF(Compartments!$A270&lt;&gt;"",Compartments!$A270,"")</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="str">
         <f>IF(Compartments!$A271&lt;&gt;"",Compartments!$A271,"")</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="str">
         <f>IF(Compartments!$A272&lt;&gt;"",Compartments!$A272,"")</f>
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="str">
         <f>IF(Compartments!$A273&lt;&gt;"",Compartments!$A273,"")</f>
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="str">
         <f>IF(Compartments!$A274&lt;&gt;"",Compartments!$A274,"")</f>
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="str">
         <f>IF(Compartments!$A275&lt;&gt;"",Compartments!$A275,"")</f>
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="str">
         <f>IF(Compartments!$A276&lt;&gt;"",Compartments!$A276,"")</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="str">
         <f>IF(Compartments!$A277&lt;&gt;"",Compartments!$A277,"")</f>
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="str">
         <f>IF(Compartments!$A278&lt;&gt;"",Compartments!$A278,"")</f>
         <v/>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="str">
         <f>IF(Compartments!$A279&lt;&gt;"",Compartments!$A279,"")</f>
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="str">
         <f>IF(Compartments!$A280&lt;&gt;"",Compartments!$A280,"")</f>
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="str">
         <f>IF(Compartments!$A281&lt;&gt;"",Compartments!$A281,"")</f>
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="str">
         <f>IF(Compartments!$A282&lt;&gt;"",Compartments!$A282,"")</f>
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="str">
         <f>IF(Compartments!$A283&lt;&gt;"",Compartments!$A283,"")</f>
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="str">
         <f>IF(Compartments!$A284&lt;&gt;"",Compartments!$A284,"")</f>
         <v/>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="str">
         <f>IF(Compartments!$A285&lt;&gt;"",Compartments!$A285,"")</f>
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="str">
         <f>IF(Compartments!$A286&lt;&gt;"",Compartments!$A286,"")</f>
         <v/>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="str">
         <f>IF(Compartments!$A287&lt;&gt;"",Compartments!$A287,"")</f>
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="str">
         <f>IF(Compartments!$A288&lt;&gt;"",Compartments!$A288,"")</f>
         <v/>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="str">
         <f>IF(Compartments!$A289&lt;&gt;"",Compartments!$A289,"")</f>
         <v/>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="str">
         <f>IF(Compartments!$A290&lt;&gt;"",Compartments!$A290,"")</f>
         <v/>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="str">
         <f>IF(Compartments!$A291&lt;&gt;"",Compartments!$A291,"")</f>
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="str">
         <f>IF(Compartments!$A292&lt;&gt;"",Compartments!$A292,"")</f>
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="str">
         <f>IF(Compartments!$A293&lt;&gt;"",Compartments!$A293,"")</f>
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="str">
         <f>IF(Compartments!$A294&lt;&gt;"",Compartments!$A294,"")</f>
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="str">
         <f>IF(Compartments!$A295&lt;&gt;"",Compartments!$A295,"")</f>
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="str">
         <f>IF(Compartments!$A296&lt;&gt;"",Compartments!$A296,"")</f>
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="str">
         <f>IF(Compartments!$A297&lt;&gt;"",Compartments!$A297,"")</f>
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="str">
         <f>IF(Compartments!$A298&lt;&gt;"",Compartments!$A298,"")</f>
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="str">
         <f>IF(Compartments!$A299&lt;&gt;"",Compartments!$A299,"")</f>
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="str">
         <f>IF(Compartments!$A300&lt;&gt;"",Compartments!$A300,"")</f>
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="str">
         <f>IF(Compartments!$A301&lt;&gt;"",Compartments!$A301,"")</f>
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="str">
         <f>IF(Compartments!$A302&lt;&gt;"",Compartments!$A302,"")</f>
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="str">
         <f>IF(Compartments!$A303&lt;&gt;"",Compartments!$A303,"")</f>
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="str">
         <f>IF(Compartments!$A304&lt;&gt;"",Compartments!$A304,"")</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="str">
         <f>IF(Compartments!$A305&lt;&gt;"",Compartments!$A305,"")</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="str">
         <f>IF(Compartments!$A306&lt;&gt;"",Compartments!$A306,"")</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="str">
         <f>IF(Compartments!$A307&lt;&gt;"",Compartments!$A307,"")</f>
         <v/>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="str">
         <f>IF(Compartments!$A308&lt;&gt;"",Compartments!$A308,"")</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="str">
         <f>IF(Compartments!$A309&lt;&gt;"",Compartments!$A309,"")</f>
         <v/>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="str">
         <f>IF(Compartments!$A310&lt;&gt;"",Compartments!$A310,"")</f>
         <v/>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="str">
         <f>IF(Compartments!$A311&lt;&gt;"",Compartments!$A311,"")</f>
         <v/>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="str">
         <f>IF(Compartments!$A312&lt;&gt;"",Compartments!$A312,"")</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="str">
         <f>IF(Compartments!$A313&lt;&gt;"",Compartments!$A313,"")</f>
         <v/>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="str">
         <f>IF(Compartments!$A314&lt;&gt;"",Compartments!$A314,"")</f>
         <v/>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="str">
         <f>IF(Compartments!$A315&lt;&gt;"",Compartments!$A315,"")</f>
         <v/>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="str">
         <f>IF(Compartments!$A316&lt;&gt;"",Compartments!$A316,"")</f>
         <v/>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="str">
         <f>IF(Compartments!$A317&lt;&gt;"",Compartments!$A317,"")</f>
         <v/>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="str">
         <f>IF(Compartments!$A318&lt;&gt;"",Compartments!$A318,"")</f>
         <v/>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="str">
         <f>IF(Compartments!$A319&lt;&gt;"",Compartments!$A319,"")</f>
         <v/>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="str">
         <f>IF(Compartments!$A320&lt;&gt;"",Compartments!$A320,"")</f>
         <v/>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="str">
         <f>IF(Compartments!$A321&lt;&gt;"",Compartments!$A321,"")</f>
         <v/>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="str">
         <f>IF(Compartments!$A322&lt;&gt;"",Compartments!$A322,"")</f>
         <v/>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="str">
         <f>IF(Compartments!$A323&lt;&gt;"",Compartments!$A323,"")</f>
         <v/>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="str">
         <f>IF(Compartments!$A324&lt;&gt;"",Compartments!$A324,"")</f>
         <v/>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="str">
         <f>IF(Compartments!$A325&lt;&gt;"",Compartments!$A325,"")</f>
         <v/>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="str">
         <f>IF(Compartments!$A326&lt;&gt;"",Compartments!$A326,"")</f>
         <v/>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="str">
         <f>IF(Compartments!$A327&lt;&gt;"",Compartments!$A327,"")</f>
         <v/>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="str">
         <f>IF(Compartments!$A328&lt;&gt;"",Compartments!$A328,"")</f>
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="str">
         <f>IF(Compartments!$A329&lt;&gt;"",Compartments!$A329,"")</f>
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="str">
         <f>IF(Compartments!$A330&lt;&gt;"",Compartments!$A330,"")</f>
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="str">
         <f>IF(Compartments!$A331&lt;&gt;"",Compartments!$A331,"")</f>
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="str">
         <f>IF(Compartments!$A332&lt;&gt;"",Compartments!$A332,"")</f>
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="str">
         <f>IF(Compartments!$A333&lt;&gt;"",Compartments!$A333,"")</f>
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="str">
         <f>IF(Compartments!$A334&lt;&gt;"",Compartments!$A334,"")</f>
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="str">
         <f>IF(Compartments!$A335&lt;&gt;"",Compartments!$A335,"")</f>
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="str">
         <f>IF(Compartments!$A336&lt;&gt;"",Compartments!$A336,"")</f>
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="str">
         <f>IF(Compartments!$A337&lt;&gt;"",Compartments!$A337,"")</f>
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="str">
         <f>IF(Compartments!$A338&lt;&gt;"",Compartments!$A338,"")</f>
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="str">
         <f>IF(Compartments!$A339&lt;&gt;"",Compartments!$A339,"")</f>
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="str">
         <f>IF(Compartments!$A340&lt;&gt;"",Compartments!$A340,"")</f>
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="str">
         <f>IF(Compartments!$A341&lt;&gt;"",Compartments!$A341,"")</f>
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="str">
         <f>IF(Compartments!$A342&lt;&gt;"",Compartments!$A342,"")</f>
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="str">
         <f>IF(Compartments!$A343&lt;&gt;"",Compartments!$A343,"")</f>
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="str">
         <f>IF(Compartments!$A344&lt;&gt;"",Compartments!$A344,"")</f>
         <v/>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="str">
         <f>IF(Compartments!$A345&lt;&gt;"",Compartments!$A345,"")</f>
         <v/>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="str">
         <f>IF(Compartments!$A346&lt;&gt;"",Compartments!$A346,"")</f>
         <v/>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="str">
         <f>IF(Compartments!$A347&lt;&gt;"",Compartments!$A347,"")</f>
         <v/>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="str">
         <f>IF(Compartments!$A348&lt;&gt;"",Compartments!$A348,"")</f>
         <v/>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="str">
         <f>IF(Compartments!$A349&lt;&gt;"",Compartments!$A349,"")</f>
         <v/>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="str">
         <f>IF(Compartments!$A350&lt;&gt;"",Compartments!$A350,"")</f>
         <v/>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="str">
         <f>IF(Compartments!$A351&lt;&gt;"",Compartments!$A351,"")</f>
         <v/>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="str">
         <f>IF(Compartments!$A352&lt;&gt;"",Compartments!$A352,"")</f>
         <v/>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="str">
         <f>IF(Compartments!$A353&lt;&gt;"",Compartments!$A353,"")</f>
         <v/>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="str">
         <f>IF(Compartments!$A354&lt;&gt;"",Compartments!$A354,"")</f>
         <v/>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="str">
         <f>IF(Compartments!$A355&lt;&gt;"",Compartments!$A355,"")</f>
         <v/>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="str">
         <f>IF(Compartments!$A356&lt;&gt;"",Compartments!$A356,"")</f>
         <v/>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="str">
         <f>IF(Compartments!$A357&lt;&gt;"",Compartments!$A357,"")</f>
         <v/>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="str">
         <f>IF(Compartments!$A358&lt;&gt;"",Compartments!$A358,"")</f>
         <v/>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="str">
         <f>IF(Compartments!$A359&lt;&gt;"",Compartments!$A359,"")</f>
         <v/>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="str">
         <f>IF(Compartments!$A360&lt;&gt;"",Compartments!$A360,"")</f>
         <v/>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="str">
         <f>IF(Compartments!$A361&lt;&gt;"",Compartments!$A361,"")</f>
         <v/>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="str">
         <f>IF(Compartments!$A362&lt;&gt;"",Compartments!$A362,"")</f>
         <v/>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="str">
         <f>IF(Compartments!$A363&lt;&gt;"",Compartments!$A363,"")</f>
         <v/>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="str">
         <f>IF(Compartments!$A364&lt;&gt;"",Compartments!$A364,"")</f>
         <v/>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="str">
         <f>IF(Compartments!$A365&lt;&gt;"",Compartments!$A365,"")</f>
         <v/>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="str">
         <f>IF(Compartments!$A366&lt;&gt;"",Compartments!$A366,"")</f>
         <v/>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="str">
         <f>IF(Compartments!$A367&lt;&gt;"",Compartments!$A367,"")</f>
         <v/>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="str">
         <f>IF(Compartments!$A368&lt;&gt;"",Compartments!$A368,"")</f>
         <v/>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="str">
         <f>IF(Compartments!$A369&lt;&gt;"",Compartments!$A369,"")</f>
         <v/>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="str">
         <f>IF(Compartments!$A370&lt;&gt;"",Compartments!$A370,"")</f>
         <v/>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="str">
         <f>IF(Compartments!$A371&lt;&gt;"",Compartments!$A371,"")</f>
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="str">
         <f>IF(Compartments!$A372&lt;&gt;"",Compartments!$A372,"")</f>
         <v/>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="str">
         <f>IF(Compartments!$A373&lt;&gt;"",Compartments!$A373,"")</f>
         <v/>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="str">
         <f>IF(Compartments!$A374&lt;&gt;"",Compartments!$A374,"")</f>
         <v/>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="str">
         <f>IF(Compartments!$A375&lt;&gt;"",Compartments!$A375,"")</f>
         <v/>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="str">
         <f>IF(Compartments!$A376&lt;&gt;"",Compartments!$A376,"")</f>
         <v/>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="str">
         <f>IF(Compartments!$A377&lt;&gt;"",Compartments!$A377,"")</f>
         <v/>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="str">
         <f>IF(Compartments!$A378&lt;&gt;"",Compartments!$A378,"")</f>
         <v/>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="str">
         <f>IF(Compartments!$A379&lt;&gt;"",Compartments!$A379,"")</f>
         <v/>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="str">
         <f>IF(Compartments!$A380&lt;&gt;"",Compartments!$A380,"")</f>
         <v/>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="str">
         <f>IF(Compartments!$A381&lt;&gt;"",Compartments!$A381,"")</f>
         <v/>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="str">
         <f>IF(Compartments!$A382&lt;&gt;"",Compartments!$A382,"")</f>
         <v/>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="str">
         <f>IF(Compartments!$A383&lt;&gt;"",Compartments!$A383,"")</f>
         <v/>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="str">
         <f>IF(Compartments!$A384&lt;&gt;"",Compartments!$A384,"")</f>
         <v/>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="str">
         <f>IF(Compartments!$A385&lt;&gt;"",Compartments!$A385,"")</f>
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="str">
         <f>IF(Compartments!$A386&lt;&gt;"",Compartments!$A386,"")</f>
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="str">
         <f>IF(Compartments!$A387&lt;&gt;"",Compartments!$A387,"")</f>
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="str">
         <f>IF(Compartments!$A388&lt;&gt;"",Compartments!$A388,"")</f>
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="str">
         <f>IF(Compartments!$A389&lt;&gt;"",Compartments!$A389,"")</f>
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="str">
         <f>IF(Compartments!$A390&lt;&gt;"",Compartments!$A390,"")</f>
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="str">
         <f>IF(Compartments!$A391&lt;&gt;"",Compartments!$A391,"")</f>
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="str">
         <f>IF(Compartments!$A392&lt;&gt;"",Compartments!$A392,"")</f>
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="str">
         <f>IF(Compartments!$A393&lt;&gt;"",Compartments!$A393,"")</f>
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="str">
         <f>IF(Compartments!$A394&lt;&gt;"",Compartments!$A394,"")</f>
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="str">
         <f>IF(Compartments!$A395&lt;&gt;"",Compartments!$A395,"")</f>
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="str">
         <f>IF(Compartments!$A396&lt;&gt;"",Compartments!$A396,"")</f>
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="str">
         <f>IF(Compartments!$A397&lt;&gt;"",Compartments!$A397,"")</f>
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="str">
         <f>IF(Compartments!$A398&lt;&gt;"",Compartments!$A398,"")</f>
         <v/>
@@ -7615,24 +7675,24 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="A1:D1 H1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7660,8 +7720,11 @@
       <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -7676,7 +7739,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7735,26 +7798,26 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" activeCellId="1" sqref="A1:H1 J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="6" width="14.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7788,8 +7851,11 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -7803,7 +7869,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -7878,14 +7944,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7896,7 +7962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -7923,17 +7989,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1EAFB5-C4B0-491C-B03B-D10386E1B6D4}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>53</v>
       </c>
@@ -7941,7 +8007,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -7949,7 +8015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -7971,17 +8037,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -8001,7 +8067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -8015,7 +8081,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -8029,7 +8095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
